--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="22420" windowHeight="20340"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="22425" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Listing is DB2-specific.</t>
+Listing is specific to DB2 or MySQL</t>
         </r>
       </text>
     </comment>
@@ -198,11 +198,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Listing is DB2-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K9" authorId="1">
+Listing is specific to DB2 or MySQL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -222,11 +222,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Listing is DB2-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L9" authorId="1">
+Listing is specific to DB2 or MySQL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -246,31 +246,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Listing is DB2-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M9" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>John Viescas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is DB2-specific.</t>
+Listing is specific to DB2 or MySQL</t>
         </r>
       </text>
     </comment>
@@ -10526,7 +10502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10539,27 +10515,27 @@
   </sheetPr>
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10600,7 +10576,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10623,7 +10599,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10652,7 +10628,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10681,7 +10657,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10710,7 +10686,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10739,7 +10715,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10768,7 +10744,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10797,7 +10773,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10822,11 +10798,11 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10855,7 +10831,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10884,7 +10860,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10913,7 +10889,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10942,7 +10918,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10971,7 +10947,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10994,7 +10970,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -11017,7 +10993,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -11046,7 +11022,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -11075,7 +11051,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -11104,7 +11080,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11133,7 +11109,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11162,7 +11138,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11191,7 +11167,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11220,7 +11196,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11249,7 +11225,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11278,7 +11254,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11307,7 +11283,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11336,7 +11312,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11365,7 +11341,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11394,7 +11370,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11423,7 +11399,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11452,7 +11428,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11481,7 +11457,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11510,7 +11486,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11539,7 +11515,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11568,7 +11544,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11597,7 +11573,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11626,7 +11602,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11655,7 +11631,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11684,7 +11660,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11713,7 +11689,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11742,7 +11718,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11766,7 +11742,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11790,7 +11766,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11819,7 +11795,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11848,7 +11824,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11877,7 +11853,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11906,7 +11882,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11935,7 +11911,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11964,7 +11940,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11993,7 +11969,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -12022,7 +11998,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -12051,7 +12027,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -12080,7 +12056,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -12109,7 +12085,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12138,7 +12114,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12167,7 +12143,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12196,7 +12172,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12225,7 +12201,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12254,7 +12230,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12283,7 +12259,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12312,7 +12288,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12341,7 +12317,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12370,7 +12346,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12399,7 +12375,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12428,7 +12404,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12457,7 +12433,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12486,7 +12462,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12515,7 +12491,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12544,7 +12520,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12573,7 +12549,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12602,7 +12578,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12631,7 +12607,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12660,7 +12636,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12689,7 +12665,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12718,7 +12694,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12747,7 +12723,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12776,7 +12752,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12805,7 +12781,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12834,7 +12810,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12863,7 +12839,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12892,7 +12868,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12921,7 +12897,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12950,7 +12926,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12979,7 +12955,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -13008,7 +12984,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -13037,7 +13013,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -13066,7 +13042,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -13095,7 +13071,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13124,7 +13100,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13153,7 +13129,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13182,7 +13158,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13211,7 +13187,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13240,7 +13216,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13269,7 +13245,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13298,7 +13274,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13327,7 +13303,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13356,7 +13332,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13385,7 +13361,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13414,7 +13390,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13443,7 +13419,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13472,7 +13448,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13501,7 +13477,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13530,7 +13506,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13559,7 +13535,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13588,7 +13564,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13617,7 +13593,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13646,7 +13622,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13675,7 +13651,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13704,7 +13680,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13733,7 +13709,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13762,7 +13738,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13791,7 +13767,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13820,7 +13796,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13849,7 +13825,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13878,7 +13854,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13907,7 +13883,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13936,7 +13912,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13965,7 +13941,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13994,7 +13970,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -14023,7 +13999,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -14052,7 +14028,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -14081,7 +14057,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -14110,7 +14086,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14139,7 +14115,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14168,7 +14144,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14197,7 +14173,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14226,7 +14202,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14255,7 +14231,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14284,7 +14260,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14313,7 +14289,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14342,7 +14318,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14371,7 +14347,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14400,7 +14376,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14429,7 +14405,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14458,7 +14434,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14487,7 +14463,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14516,7 +14492,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14545,7 +14521,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14574,7 +14550,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14603,7 +14579,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14632,7 +14608,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14661,7 +14637,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14690,7 +14666,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14719,7 +14695,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14748,7 +14724,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14777,7 +14753,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14806,7 +14782,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14835,7 +14811,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14864,7 +14840,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14893,7 +14869,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14922,7 +14898,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14951,7 +14927,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14980,7 +14956,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -15009,7 +14985,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -15038,7 +15014,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -15067,7 +15043,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -15096,7 +15072,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15125,7 +15101,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15154,7 +15130,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15183,7 +15159,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15212,7 +15188,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15241,7 +15217,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15270,7 +15246,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15299,7 +15275,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15328,7 +15304,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15357,7 +15333,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15386,7 +15362,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15415,7 +15391,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15444,7 +15420,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15473,7 +15449,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15502,7 +15478,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15531,7 +15507,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15560,7 +15536,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15589,7 +15565,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15618,7 +15594,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15647,7 +15623,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>7</v>
       </c>
@@ -15676,7 +15652,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15705,7 +15681,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15734,7 +15710,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15763,7 +15739,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>8</v>
       </c>
@@ -15792,7 +15768,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15821,7 +15797,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>8</v>
       </c>
@@ -15850,7 +15826,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15879,7 +15855,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15908,7 +15884,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15937,7 +15913,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15966,7 +15942,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -15995,7 +15971,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -16024,7 +16000,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>8</v>
       </c>
@@ -16053,7 +16029,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -16082,7 +16058,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -16111,7 +16087,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>9</v>
       </c>
@@ -16140,7 +16116,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16169,7 +16145,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>9</v>
       </c>
@@ -16198,7 +16174,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16227,7 +16203,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16256,7 +16232,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>9</v>
       </c>
@@ -16285,7 +16261,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16314,7 +16290,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16343,7 +16319,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16372,7 +16348,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -16401,7 +16377,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16430,7 +16406,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16459,7 +16435,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16488,7 +16464,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16517,7 +16493,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16546,7 +16522,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16575,7 +16551,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -16604,7 +16580,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16633,7 +16609,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16662,7 +16638,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>9</v>
       </c>
@@ -16691,7 +16667,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16720,7 +16696,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16749,7 +16725,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -16778,7 +16754,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16807,7 +16783,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16836,7 +16812,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10</v>
       </c>
@@ -16865,7 +16841,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16894,7 +16870,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16923,7 +16899,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10</v>
       </c>
@@ -16952,7 +16928,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16981,7 +16957,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -17010,7 +16986,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10</v>
       </c>
@@ -17039,7 +17015,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -17068,7 +17044,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -17097,7 +17073,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17126,7 +17102,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>10</v>
       </c>
@@ -17159,8 +17135,8 @@
   <autoFilter ref="A1:M228"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" fitToHeight="0" orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Doug\Documents\GitHub\Effective-SQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1905" yWindow="0" windowWidth="22425" windowHeight="17520"/>
   </bookViews>
@@ -16,11 +21,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -34,7 +39,7 @@
     <author>Ben Clothier</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0">
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
+    <comment ref="M8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="1">
+    <comment ref="I9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="1">
+    <comment ref="J9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="1">
+    <comment ref="L9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="1">
+    <comment ref="M9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1">
+    <comment ref="H10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1">
+    <comment ref="I10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="1">
+    <comment ref="J10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="1">
+    <comment ref="K10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="1">
+    <comment ref="M10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1">
+    <comment ref="I13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0">
+    <comment ref="K17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="0">
+    <comment ref="L17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0">
+    <comment ref="M17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0">
+    <comment ref="J18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0">
+    <comment ref="K18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L18" authorId="0">
+    <comment ref="L18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0">
+    <comment ref="M18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -634,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0">
+    <comment ref="J19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0">
+    <comment ref="K19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="0">
+    <comment ref="L19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0">
+    <comment ref="M19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0">
+    <comment ref="K20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L20" authorId="0">
+    <comment ref="L20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0">
+    <comment ref="M20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -874,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -898,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0">
+    <comment ref="I21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0">
+    <comment ref="J21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0">
+    <comment ref="K21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0">
+    <comment ref="M21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0">
+    <comment ref="H22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="K22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0">
+    <comment ref="M22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0">
+    <comment ref="H23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1162,7 +1167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0">
+    <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0">
+    <comment ref="K23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0">
+    <comment ref="L23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0">
+    <comment ref="I24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1282,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0">
+    <comment ref="I26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0">
+    <comment ref="I29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1378,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0">
+    <comment ref="I30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1402,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1426,7 +1431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0">
+    <comment ref="I32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0">
+    <comment ref="I33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1474,7 +1479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0">
+    <comment ref="I34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="2">
+    <comment ref="H35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="0">
+    <comment ref="I35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1547,7 +1552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="2">
+    <comment ref="K35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1572,7 +1577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L35" authorId="2">
+    <comment ref="L35" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="2">
+    <comment ref="H36" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1622,7 +1627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0">
+    <comment ref="I36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1646,7 +1651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="2">
+    <comment ref="J36" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="2">
+    <comment ref="K36" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L36" authorId="2">
+    <comment ref="L36" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0">
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1745,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0">
+    <comment ref="K37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1769,7 +1774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0">
+    <comment ref="I38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1793,7 +1798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K38" authorId="0">
+    <comment ref="K38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1817,7 +1822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0">
+    <comment ref="I39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1841,7 +1846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="0">
+    <comment ref="K39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1865,7 +1870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0">
+    <comment ref="I40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1889,7 +1894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0">
+    <comment ref="I41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1913,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0">
+    <comment ref="K41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1937,7 +1942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0">
+    <comment ref="I44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="0">
+    <comment ref="I45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1985,7 +1990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0">
+    <comment ref="I46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2009,7 +2014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0">
+    <comment ref="I47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2033,7 +2038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0">
+    <comment ref="I48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0">
+    <comment ref="I49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2081,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0">
+    <comment ref="I50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2105,7 +2110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0">
+    <comment ref="I51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2129,7 +2134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="0">
+    <comment ref="I52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0">
+    <comment ref="I54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J54" authorId="0">
+    <comment ref="J54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2201,7 +2206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K54" authorId="0">
+    <comment ref="K54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2225,7 +2230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L54" authorId="0">
+    <comment ref="L54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2249,7 +2254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M54" authorId="0">
+    <comment ref="M54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2273,7 +2278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H55" authorId="0">
+    <comment ref="H55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0">
+    <comment ref="I55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="0">
+    <comment ref="J55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2345,7 +2350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K55" authorId="0">
+    <comment ref="K55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2369,7 +2374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L55" authorId="2">
+    <comment ref="L55" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2394,7 +2399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M55" authorId="0">
+    <comment ref="M55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2418,7 +2423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="0">
+    <comment ref="I56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2442,7 +2447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0">
+    <comment ref="I57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2466,7 +2471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I58" authorId="0">
+    <comment ref="I58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="0">
+    <comment ref="I59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2514,7 +2519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L59" authorId="2">
+    <comment ref="L59" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2539,7 +2544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="1">
+    <comment ref="I60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2563,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K60" authorId="0">
+    <comment ref="K60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2587,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I62" authorId="1">
+    <comment ref="I62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2611,7 +2616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K62" authorId="0">
+    <comment ref="K62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2635,7 +2640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I63" authorId="0">
+    <comment ref="I63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2659,7 +2664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="0">
+    <comment ref="I64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2683,7 +2688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="0">
+    <comment ref="I65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2707,7 +2712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H66" authorId="2">
+    <comment ref="H66" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2731,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="1">
+    <comment ref="I66" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2755,7 +2760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J66" authorId="2">
+    <comment ref="J66" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2779,7 +2784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K66" authorId="2">
+    <comment ref="K66" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2803,7 +2808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L66" authorId="2">
+    <comment ref="L66" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M66" authorId="2">
+    <comment ref="M66" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2851,7 +2856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="1">
+    <comment ref="I67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2875,7 +2880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="1">
+    <comment ref="I69" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2899,7 +2904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="1">
+    <comment ref="I72" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2923,7 +2928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K72" authorId="0">
+    <comment ref="K72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2947,7 +2952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I75" authorId="1">
+    <comment ref="I75" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2971,7 +2976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K75" authorId="0">
+    <comment ref="K75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2995,7 +3000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I80" authorId="0">
+    <comment ref="I80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3019,7 +3024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="0">
+    <comment ref="I81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3043,7 +3048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I82" authorId="0">
+    <comment ref="I82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3067,7 +3072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I83" authorId="0">
+    <comment ref="I83" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3091,7 +3096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I84" authorId="0">
+    <comment ref="I84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3115,7 +3120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="0">
+    <comment ref="I85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3139,7 +3144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I86" authorId="0">
+    <comment ref="I86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3163,7 +3168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="0">
+    <comment ref="I87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3187,7 +3192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I88" authorId="0">
+    <comment ref="I88" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3211,7 +3216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I89" authorId="0">
+    <comment ref="I89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3235,7 +3240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="0">
+    <comment ref="I90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3259,7 +3264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="0">
+    <comment ref="I91" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3283,7 +3288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="0">
+    <comment ref="I92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3307,7 +3312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="0">
+    <comment ref="I93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3331,7 +3336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I94" authorId="0">
+    <comment ref="I94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3355,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I95" authorId="0">
+    <comment ref="I95" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3379,7 +3384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I96" authorId="0">
+    <comment ref="I96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3403,7 +3408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H100" authorId="0">
+    <comment ref="H100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3427,7 +3432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I100" authorId="0">
+    <comment ref="I100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J100" authorId="0">
+    <comment ref="J100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3475,7 +3480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K100" authorId="0">
+    <comment ref="K100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3499,7 +3504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L100" authorId="0">
+    <comment ref="L100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3523,7 +3528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M100" authorId="0">
+    <comment ref="M100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3547,7 +3552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H101" authorId="0">
+    <comment ref="H101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3571,7 +3576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I101" authorId="0">
+    <comment ref="I101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3595,7 +3600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J101" authorId="0">
+    <comment ref="J101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3619,7 +3624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K101" authorId="0">
+    <comment ref="K101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3643,7 +3648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L101" authorId="0">
+    <comment ref="L101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3667,7 +3672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M101" authorId="0">
+    <comment ref="M101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3691,7 +3696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H102" authorId="0">
+    <comment ref="H102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3715,7 +3720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="0">
+    <comment ref="I102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3739,7 +3744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J102" authorId="0">
+    <comment ref="J102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3763,7 +3768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K102" authorId="0">
+    <comment ref="K102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3787,7 +3792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L102" authorId="0">
+    <comment ref="L102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3811,7 +3816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M102" authorId="0">
+    <comment ref="M102" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3835,7 +3840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I103" authorId="0">
+    <comment ref="I103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3859,7 +3864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I104" authorId="0">
+    <comment ref="I104" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3883,7 +3888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K104" authorId="0">
+    <comment ref="K104" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3907,7 +3912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I105" authorId="0">
+    <comment ref="I105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3931,7 +3936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K105" authorId="0">
+    <comment ref="K105" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3955,7 +3960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I106" authorId="0">
+    <comment ref="I106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3979,7 +3984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I107" authorId="0">
+    <comment ref="I107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4003,7 +4008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I108" authorId="0">
+    <comment ref="I108" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4027,7 +4032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H110" authorId="2">
+    <comment ref="H110" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4051,7 +4056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I110" authorId="2">
+    <comment ref="I110" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4075,7 +4080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J110" authorId="2">
+    <comment ref="J110" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4099,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L110" authorId="2">
+    <comment ref="L110" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4123,7 +4128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H114" authorId="1">
+    <comment ref="H114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4147,7 +4152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="1">
+    <comment ref="I114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4171,7 +4176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K114" authorId="1">
+    <comment ref="K114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4195,7 +4200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L114" authorId="1">
+    <comment ref="L114" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4219,7 +4224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H115" authorId="1">
+    <comment ref="H115" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4243,7 +4248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I115" authorId="1">
+    <comment ref="I115" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4267,7 +4272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K115" authorId="1">
+    <comment ref="K115" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4291,7 +4296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L115" authorId="1">
+    <comment ref="L115" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4315,7 +4320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I116" authorId="0">
+    <comment ref="I116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4339,7 +4344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I117" authorId="0">
+    <comment ref="I117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4363,7 +4368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I118" authorId="0">
+    <comment ref="I118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4387,7 +4392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I119" authorId="0">
+    <comment ref="I119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4411,7 +4416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H123" authorId="2">
+    <comment ref="H123" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4435,7 +4440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M123" authorId="2">
+    <comment ref="M123" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4459,7 +4464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H124" authorId="2">
+    <comment ref="H124" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4483,7 +4488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M124" authorId="2">
+    <comment ref="M124" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4507,7 +4512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H125" authorId="2">
+    <comment ref="H125" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4531,7 +4536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M125" authorId="2">
+    <comment ref="M125" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4555,7 +4560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I126" authorId="0">
+    <comment ref="I126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4579,7 +4584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I127" authorId="0">
+    <comment ref="I127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4603,7 +4608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L127" authorId="2">
+    <comment ref="L127" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4627,7 +4632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I128" authorId="1">
+    <comment ref="I128" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4651,7 +4656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K128" authorId="2">
+    <comment ref="K128" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4675,7 +4680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I129" authorId="1">
+    <comment ref="I129" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4699,7 +4704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K129" authorId="2">
+    <comment ref="K129" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4723,7 +4728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I130" authorId="1">
+    <comment ref="I130" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4747,7 +4752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K130" authorId="2">
+    <comment ref="K130" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4771,7 +4776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I131" authorId="1">
+    <comment ref="I131" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4795,7 +4800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K131" authorId="2">
+    <comment ref="K131" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4819,7 +4824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I132" authorId="1">
+    <comment ref="I132" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4843,7 +4848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K132" authorId="2">
+    <comment ref="K132" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4867,7 +4872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I133" authorId="1">
+    <comment ref="I133" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4891,7 +4896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K133" authorId="2">
+    <comment ref="K133" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4915,7 +4920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I146" authorId="1">
+    <comment ref="I146" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4939,7 +4944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K146" authorId="1">
+    <comment ref="K146" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4963,7 +4968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I147" authorId="1">
+    <comment ref="I147" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4987,7 +4992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K147" authorId="0">
+    <comment ref="K147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5011,7 +5016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H148" authorId="2">
+    <comment ref="H148" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5035,7 +5040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I148" authorId="1">
+    <comment ref="I148" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5059,7 +5064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K148" authorId="0">
+    <comment ref="K148" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5083,7 +5088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I149" authorId="0">
+    <comment ref="I149" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5107,7 +5112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I150" authorId="0">
+    <comment ref="I150" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5131,7 +5136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I151" authorId="0">
+    <comment ref="I151" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5155,7 +5160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I152" authorId="0">
+    <comment ref="I152" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5179,7 +5184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I153" authorId="0">
+    <comment ref="I153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5203,7 +5208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J153" authorId="0">
+    <comment ref="J153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5227,7 +5232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K153" authorId="0">
+    <comment ref="K153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5251,7 +5256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L153" authorId="0">
+    <comment ref="L153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5275,7 +5280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M153" authorId="0">
+    <comment ref="M153" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5299,7 +5304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I154" authorId="0">
+    <comment ref="I154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5323,7 +5328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J154" authorId="0">
+    <comment ref="J154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5347,7 +5352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K154" authorId="0">
+    <comment ref="K154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5371,7 +5376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L154" authorId="0">
+    <comment ref="L154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5395,7 +5400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M154" authorId="0">
+    <comment ref="M154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5419,7 +5424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H155" authorId="0">
+    <comment ref="H155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5443,7 +5448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J155" authorId="0">
+    <comment ref="J155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5467,7 +5472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K155" authorId="0">
+    <comment ref="K155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5491,7 +5496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L155" authorId="0">
+    <comment ref="L155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5515,7 +5520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M155" authorId="0">
+    <comment ref="M155" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5539,7 +5544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H156" authorId="0">
+    <comment ref="H156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5563,7 +5568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J156" authorId="0">
+    <comment ref="J156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5587,7 +5592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K156" authorId="0">
+    <comment ref="K156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5611,7 +5616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L156" authorId="0">
+    <comment ref="L156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5635,7 +5640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M156" authorId="0">
+    <comment ref="M156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5659,7 +5664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H157" authorId="0">
+    <comment ref="H157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5683,7 +5688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I157" authorId="0">
+    <comment ref="I157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5707,7 +5712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K157" authorId="0">
+    <comment ref="K157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5731,7 +5736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L157" authorId="0">
+    <comment ref="L157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5755,7 +5760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M157" authorId="0">
+    <comment ref="M157" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5779,7 +5784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H158" authorId="0">
+    <comment ref="H158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5803,7 +5808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I158" authorId="0">
+    <comment ref="I158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5827,7 +5832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K158" authorId="0">
+    <comment ref="K158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5851,7 +5856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L158" authorId="0">
+    <comment ref="L158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5875,7 +5880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M158" authorId="0">
+    <comment ref="M158" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5899,7 +5904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H159" authorId="0">
+    <comment ref="H159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5923,7 +5928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I159" authorId="0">
+    <comment ref="I159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5947,7 +5952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J159" authorId="0">
+    <comment ref="J159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5971,7 +5976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L159" authorId="0">
+    <comment ref="L159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5995,7 +6000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M159" authorId="0">
+    <comment ref="M159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6019,7 +6024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H160" authorId="0">
+    <comment ref="H160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6043,7 +6048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I160" authorId="0">
+    <comment ref="I160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6067,7 +6072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J160" authorId="0">
+    <comment ref="J160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6091,7 +6096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L160" authorId="0">
+    <comment ref="L160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6115,7 +6120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M160" authorId="0">
+    <comment ref="M160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6139,7 +6144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H161" authorId="0">
+    <comment ref="H161" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6163,7 +6168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I161" authorId="0">
+    <comment ref="I161" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6187,7 +6192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J161" authorId="0">
+    <comment ref="J161" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6211,7 +6216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K161" authorId="0">
+    <comment ref="K161" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6235,7 +6240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M161" authorId="0">
+    <comment ref="M161" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6259,7 +6264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H162" authorId="0">
+    <comment ref="H162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6283,7 +6288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I162" authorId="0">
+    <comment ref="I162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6307,7 +6312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J162" authorId="0">
+    <comment ref="J162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6331,7 +6336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K162" authorId="0">
+    <comment ref="K162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6355,7 +6360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M162" authorId="0">
+    <comment ref="M162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6379,7 +6384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H163" authorId="0">
+    <comment ref="H163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6403,7 +6408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I163" authorId="0">
+    <comment ref="I163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6427,7 +6432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J163" authorId="0">
+    <comment ref="J163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6451,7 +6456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K163" authorId="0">
+    <comment ref="K163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6475,7 +6480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L163" authorId="0">
+    <comment ref="L163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6499,7 +6504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H164" authorId="0">
+    <comment ref="H164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6523,7 +6528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I164" authorId="0">
+    <comment ref="I164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6547,7 +6552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J164" authorId="0">
+    <comment ref="J164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6571,7 +6576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K164" authorId="0">
+    <comment ref="K164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6595,7 +6600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L164" authorId="0">
+    <comment ref="L164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6619,7 +6624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H165" authorId="0">
+    <comment ref="H165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6643,7 +6648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I165" authorId="0">
+    <comment ref="I165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6667,7 +6672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J165" authorId="0">
+    <comment ref="J165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6691,7 +6696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K165" authorId="0">
+    <comment ref="K165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6715,7 +6720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L165" authorId="0">
+    <comment ref="L165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6739,7 +6744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H166" authorId="2">
+    <comment ref="H166" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6763,7 +6768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I166" authorId="0">
+    <comment ref="I166" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6787,7 +6792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L166" authorId="2">
+    <comment ref="L166" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6811,7 +6816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H167" authorId="2">
+    <comment ref="H167" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6835,7 +6840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I167" authorId="0">
+    <comment ref="I167" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6859,7 +6864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L167" authorId="2">
+    <comment ref="L167" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6883,7 +6888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H168" authorId="2">
+    <comment ref="H168" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6907,7 +6912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I168" authorId="0">
+    <comment ref="I168" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6931,7 +6936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L168" authorId="2">
+    <comment ref="L168" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6955,7 +6960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H169" authorId="2">
+    <comment ref="H169" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6979,7 +6984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I169" authorId="0">
+    <comment ref="I169" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7003,7 +7008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K169" authorId="0">
+    <comment ref="K169" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7027,7 +7032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L169" authorId="2">
+    <comment ref="L169" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7051,7 +7056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I170" authorId="0">
+    <comment ref="I170" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7075,7 +7080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H171" authorId="0">
+    <comment ref="H171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7099,7 +7104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I171" authorId="0">
+    <comment ref="I171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7123,7 +7128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K171" authorId="0">
+    <comment ref="K171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7147,7 +7152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L171" authorId="0">
+    <comment ref="L171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7171,7 +7176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M171" authorId="0">
+    <comment ref="M171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7195,7 +7200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H172" authorId="0">
+    <comment ref="H172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7219,7 +7224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I172" authorId="0">
+    <comment ref="I172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7243,7 +7248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K172" authorId="0">
+    <comment ref="K172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7267,7 +7272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L172" authorId="0">
+    <comment ref="L172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7291,7 +7296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M172" authorId="0">
+    <comment ref="M172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7315,7 +7320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H177" authorId="2">
+    <comment ref="H177" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7339,7 +7344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I177" authorId="2">
+    <comment ref="I177" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7363,7 +7368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K177" authorId="2">
+    <comment ref="K177" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7387,7 +7392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L177" authorId="2">
+    <comment ref="L177" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7411,7 +7416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M177" authorId="2">
+    <comment ref="M177" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7435,7 +7440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I178" authorId="0">
+    <comment ref="I178" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7459,7 +7464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I179" authorId="0">
+    <comment ref="I179" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7483,7 +7488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I180" authorId="0">
+    <comment ref="I180" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7507,7 +7512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I181" authorId="0">
+    <comment ref="I181" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7531,7 +7536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I183" authorId="1">
+    <comment ref="I183" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7555,7 +7560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K183" authorId="2">
+    <comment ref="K183" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7579,7 +7584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I187" authorId="1">
+    <comment ref="I187" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7603,7 +7608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K187" authorId="2">
+    <comment ref="K187" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7627,7 +7632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I189" authorId="1">
+    <comment ref="I189" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7651,7 +7656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K189" authorId="1">
+    <comment ref="K189" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7675,7 +7680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I190" authorId="1">
+    <comment ref="I190" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7699,7 +7704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K190" authorId="1">
+    <comment ref="K190" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7723,7 +7728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I191" authorId="1">
+    <comment ref="I191" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7747,7 +7752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K191" authorId="0">
+    <comment ref="K191" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7771,7 +7776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="1">
+    <comment ref="I193" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7795,7 +7800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K193" authorId="0">
+    <comment ref="K193" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7819,7 +7824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I194" authorId="1">
+    <comment ref="I194" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7843,7 +7848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K194" authorId="2">
+    <comment ref="K194" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7867,7 +7872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H195" authorId="2">
+    <comment ref="H195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7891,7 +7896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I195" authorId="2">
+    <comment ref="I195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7915,7 +7920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J195" authorId="2">
+    <comment ref="J195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7939,7 +7944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K195" authorId="2">
+    <comment ref="K195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7963,7 +7968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L195" authorId="2">
+    <comment ref="L195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7987,7 +7992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M195" authorId="2">
+    <comment ref="M195" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8011,7 +8016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I196" authorId="1">
+    <comment ref="I196" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8035,7 +8040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K196" authorId="1">
+    <comment ref="K196" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8059,7 +8064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I197" authorId="1">
+    <comment ref="I197" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8083,7 +8088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K197" authorId="1">
+    <comment ref="K197" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8107,7 +8112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I198" authorId="1">
+    <comment ref="I198" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8131,7 +8136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K198" authorId="1">
+    <comment ref="K198" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8155,7 +8160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I199" authorId="0">
+    <comment ref="I199" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8179,7 +8184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I200" authorId="0">
+    <comment ref="I200" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8203,7 +8208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I201" authorId="0">
+    <comment ref="I201" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8227,7 +8232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I202" authorId="0">
+    <comment ref="I202" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8251,7 +8256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I203" authorId="0">
+    <comment ref="I203" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8275,7 +8280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I204" authorId="0">
+    <comment ref="I204" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8299,7 +8304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I205" authorId="0">
+    <comment ref="I205" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8323,7 +8328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I206" authorId="0">
+    <comment ref="I206" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8347,7 +8352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I207" authorId="0">
+    <comment ref="I207" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8371,7 +8376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I208" authorId="0">
+    <comment ref="I208" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8395,7 +8400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I209" authorId="0">
+    <comment ref="I209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8419,7 +8424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I210" authorId="0">
+    <comment ref="I210" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8443,7 +8448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I211" authorId="0">
+    <comment ref="I211" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8467,7 +8472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L211" authorId="2">
+    <comment ref="L211" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8491,7 +8496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M211" authorId="2">
+    <comment ref="M211" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8515,7 +8520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I212" authorId="0">
+    <comment ref="I212" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -10502,7 +10507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10510,14 +10515,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9:M9"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13607,7 +13612,7 @@
         <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F107" t="s">
         <v>486</v>
@@ -13636,7 +13641,7 @@
         <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
         <v>486</v>
@@ -13781,7 +13786,7 @@
         <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
         <v>486</v>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="0" windowWidth="22420" windowHeight="20340"/>
+    <workbookView xWindow="8415" yWindow="0" windowWidth="22425" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -174,11 +174,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Cannot create computed columns in Access.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L9" authorId="1">
+Cannot index on calculated column in Access (calcuated columns was introduced in Access 2010 and later)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -198,11 +198,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not possible in Oracle.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M9" authorId="1">
+Not possible in PostgreSQL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -222,11 +222,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not possible in PostgreSQL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="1">
+Cannot index on calculated column in Access (calcuated columns was introduced in Access 2010 and later)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -246,103 +246,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>John Viescas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>John Viescas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>John Viescas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>John Viescas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific.</t>
+Not possible in PostgreSQL</t>
         </r>
       </text>
     </comment>
@@ -10502,7 +10406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10517,25 +10421,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34:I35"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10576,7 +10480,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10599,7 +10503,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10628,7 +10532,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10657,7 +10561,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10686,7 +10590,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10715,7 +10619,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10744,7 +10648,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10773,7 +10677,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10793,16 +10697,16 @@
         <v>486</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10822,16 +10726,16 @@
         <v>486</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>489</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10860,7 +10764,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10889,7 +10793,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10918,7 +10822,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10947,7 +10851,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10970,7 +10874,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10993,7 +10897,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -11022,7 +10926,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -11051,7 +10955,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -11080,7 +10984,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11109,7 +11013,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11138,7 +11042,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11167,7 +11071,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11196,7 +11100,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11225,7 +11129,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11254,7 +11158,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11283,7 +11187,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11312,7 +11216,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11341,7 +11245,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11370,7 +11274,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11399,7 +11303,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11428,7 +11332,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11457,7 +11361,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11486,7 +11390,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11515,7 +11419,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11544,7 +11448,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11573,7 +11477,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11602,7 +11506,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11631,7 +11535,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11660,7 +11564,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11689,7 +11593,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11718,7 +11622,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11742,7 +11646,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11766,7 +11670,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11795,7 +11699,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11824,7 +11728,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11853,7 +11757,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11882,7 +11786,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11911,7 +11815,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11940,7 +11844,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11969,7 +11873,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11998,7 +11902,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -12027,7 +11931,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -12056,7 +11960,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -12085,7 +11989,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12114,7 +12018,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12143,7 +12047,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12172,7 +12076,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12201,7 +12105,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12230,7 +12134,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12259,7 +12163,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12288,7 +12192,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12317,7 +12221,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12346,7 +12250,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12375,7 +12279,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12404,7 +12308,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12433,7 +12337,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12462,7 +12366,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12491,7 +12395,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12520,7 +12424,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12549,7 +12453,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12578,7 +12482,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12607,7 +12511,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12636,7 +12540,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12665,7 +12569,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12694,7 +12598,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12723,7 +12627,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12752,7 +12656,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12781,7 +12685,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12810,7 +12714,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12839,7 +12743,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12868,7 +12772,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12897,7 +12801,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12926,7 +12830,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12955,7 +12859,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12984,7 +12888,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -13013,7 +12917,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -13042,7 +12946,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -13071,7 +12975,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13100,7 +13004,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13129,7 +13033,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13158,7 +13062,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13187,7 +13091,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13216,7 +13120,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13245,7 +13149,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13274,7 +13178,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13303,7 +13207,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13332,7 +13236,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13361,7 +13265,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13390,7 +13294,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13419,7 +13323,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13448,7 +13352,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13477,7 +13381,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13506,7 +13410,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13535,7 +13439,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13564,7 +13468,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13593,7 +13497,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13622,7 +13526,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13651,7 +13555,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13680,7 +13584,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13709,7 +13613,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13738,7 +13642,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13767,7 +13671,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13796,7 +13700,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13825,7 +13729,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13854,7 +13758,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13883,7 +13787,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13912,7 +13816,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13941,7 +13845,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13970,7 +13874,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13999,7 +13903,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -14028,7 +13932,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -14057,7 +13961,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -14086,7 +13990,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14115,7 +14019,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14144,7 +14048,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14173,7 +14077,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14202,7 +14106,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14231,7 +14135,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14260,7 +14164,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14289,7 +14193,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14318,7 +14222,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14347,7 +14251,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14376,7 +14280,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14405,7 +14309,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14434,7 +14338,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14463,7 +14367,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14492,7 +14396,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14521,7 +14425,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14550,7 +14454,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14579,7 +14483,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14608,7 +14512,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14637,7 +14541,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14666,7 +14570,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14695,7 +14599,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14724,7 +14628,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14753,7 +14657,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14782,7 +14686,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14811,7 +14715,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14840,7 +14744,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14869,7 +14773,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14898,7 +14802,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14927,7 +14831,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14956,7 +14860,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14985,7 +14889,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -15014,7 +14918,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -15043,7 +14947,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -15072,7 +14976,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15101,7 +15005,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15130,7 +15034,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15159,7 +15063,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15188,7 +15092,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15217,7 +15121,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15246,7 +15150,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15275,7 +15179,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15304,7 +15208,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15333,7 +15237,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15362,7 +15266,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15391,7 +15295,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15420,7 +15324,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15449,7 +15353,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15478,7 +15382,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15507,7 +15411,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15536,7 +15440,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15565,7 +15469,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15594,7 +15498,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15623,7 +15527,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>7</v>
       </c>
@@ -15652,7 +15556,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15681,7 +15585,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15710,7 +15614,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15739,7 +15643,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>8</v>
       </c>
@@ -15768,7 +15672,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15797,7 +15701,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>8</v>
       </c>
@@ -15826,7 +15730,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15855,7 +15759,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15884,7 +15788,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15913,7 +15817,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15942,7 +15846,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -15971,7 +15875,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -16000,7 +15904,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>8</v>
       </c>
@@ -16029,7 +15933,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -16058,7 +15962,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -16087,7 +15991,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>9</v>
       </c>
@@ -16116,7 +16020,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16145,7 +16049,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>9</v>
       </c>
@@ -16174,7 +16078,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16203,7 +16107,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16232,7 +16136,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>9</v>
       </c>
@@ -16261,7 +16165,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16290,7 +16194,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16319,7 +16223,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16348,7 +16252,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -16377,7 +16281,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16406,7 +16310,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16435,7 +16339,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16464,7 +16368,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16493,7 +16397,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16522,7 +16426,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16551,7 +16455,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -16580,7 +16484,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16609,7 +16513,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16638,7 +16542,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>9</v>
       </c>
@@ -16667,7 +16571,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16696,7 +16600,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16725,7 +16629,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -16754,7 +16658,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16783,7 +16687,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16812,7 +16716,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10</v>
       </c>
@@ -16841,7 +16745,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16870,7 +16774,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16899,7 +16803,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10</v>
       </c>
@@ -16928,7 +16832,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16957,7 +16861,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16986,7 +16890,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10</v>
       </c>
@@ -17015,7 +16919,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -17044,7 +16948,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -17073,7 +16977,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17102,7 +17006,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>10</v>
       </c>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -2161,16 +2161,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Listing is Oracle-specific</t>
@@ -2185,70 +2185,70 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="J55" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Implemented as an indexed view.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
-    <comment ref="K55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L55" authorId="2">
       <text>
         <r>
@@ -2257,7 +2257,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ben Clothier:</t>
         </r>
@@ -2266,35 +2266,11 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cannot test due to a licensing restriction.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -9869,9 +9845,6 @@
     <t>Item20DB2Example</t>
   </si>
   <si>
-    <t>Item20OracleExample</t>
-  </si>
-  <si>
     <t>Item27Example</t>
   </si>
   <si>
@@ -9900,13 +9873,16 @@
   </si>
   <si>
     <t>&lt;No listings in item&gt;</t>
+  </si>
+  <si>
+    <t>Item20***Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9987,6 +9963,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -10406,7 +10408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10420,8 +10422,8 @@
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10456,10 +10458,10 @@
         <v>441</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>456</v>
@@ -10488,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>440</v>
@@ -10500,7 +10502,7 @@
         <v>476</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10520,10 +10522,10 @@
         <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10549,10 +10551,10 @@
         <v>443</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -10578,10 +10580,10 @@
         <v>465</v>
       </c>
       <c r="F5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10607,10 +10609,10 @@
         <v>465</v>
       </c>
       <c r="F6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -10636,10 +10638,10 @@
         <v>444</v>
       </c>
       <c r="F7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -10665,10 +10667,10 @@
         <v>444</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -10694,10 +10696,10 @@
         <v>444</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
@@ -10723,10 +10725,10 @@
         <v>444</v>
       </c>
       <c r="F10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -10752,10 +10754,10 @@
         <v>444</v>
       </c>
       <c r="F11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -10781,10 +10783,10 @@
         <v>444</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10810,10 +10812,10 @@
         <v>444</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -10839,10 +10841,10 @@
         <v>444</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10859,7 +10861,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>440</v>
@@ -10871,7 +10873,7 @@
         <v>476</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -10882,7 +10884,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>440</v>
@@ -10894,7 +10896,7 @@
         <v>476</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -10914,10 +10916,10 @@
         <v>444</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
@@ -10943,10 +10945,10 @@
         <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -10972,10 +10974,10 @@
         <v>444</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
@@ -11001,10 +11003,10 @@
         <v>444</v>
       </c>
       <c r="F20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -11030,10 +11032,10 @@
         <v>444</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -11059,10 +11061,10 @@
         <v>444</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -11088,10 +11090,10 @@
         <v>444</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -11120,7 +11122,7 @@
         <v>42</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -11149,7 +11151,7 @@
         <v>42</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -11178,7 +11180,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -11204,10 +11206,10 @@
         <v>444</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -11233,10 +11235,10 @@
         <v>444</v>
       </c>
       <c r="F28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -11262,10 +11264,10 @@
         <v>444</v>
       </c>
       <c r="F29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -11291,10 +11293,10 @@
         <v>444</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -11320,10 +11322,10 @@
         <v>444</v>
       </c>
       <c r="F31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -11349,10 +11351,10 @@
         <v>444</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -11378,10 +11380,10 @@
         <v>444</v>
       </c>
       <c r="F33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -11407,10 +11409,10 @@
         <v>444</v>
       </c>
       <c r="F34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
@@ -11436,10 +11438,10 @@
         <v>444</v>
       </c>
       <c r="F35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
@@ -11468,7 +11470,7 @@
         <v>62</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
@@ -11494,10 +11496,10 @@
         <v>444</v>
       </c>
       <c r="F37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -11526,7 +11528,7 @@
         <v>66</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
@@ -11555,7 +11557,7 @@
         <v>66</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -11581,10 +11583,10 @@
         <v>444</v>
       </c>
       <c r="F40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -11610,10 +11612,10 @@
         <v>444</v>
       </c>
       <c r="F41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
@@ -11630,7 +11632,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>440</v>
@@ -11642,7 +11644,7 @@
         <v>476</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J42" s="11"/>
     </row>
@@ -11654,7 +11656,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>440</v>
@@ -11666,7 +11668,7 @@
         <v>476</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J43" s="11"/>
     </row>
@@ -11687,10 +11689,10 @@
         <v>444</v>
       </c>
       <c r="F44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -11716,10 +11718,10 @@
         <v>444</v>
       </c>
       <c r="F45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -11745,10 +11747,10 @@
         <v>444</v>
       </c>
       <c r="F46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
@@ -11774,10 +11776,10 @@
         <v>444</v>
       </c>
       <c r="F47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
@@ -11803,10 +11805,10 @@
         <v>444</v>
       </c>
       <c r="F48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -11832,10 +11834,10 @@
         <v>445</v>
       </c>
       <c r="F49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
@@ -11861,10 +11863,10 @@
         <v>445</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -11890,10 +11892,10 @@
         <v>444</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -11919,10 +11921,10 @@
         <v>444</v>
       </c>
       <c r="F52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -11948,10 +11950,10 @@
         <v>466</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -11980,7 +11982,7 @@
         <v>94</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
@@ -12003,20 +12005,20 @@
         <v>97</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="8"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -12035,10 +12037,10 @@
         <v>446</v>
       </c>
       <c r="F56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -12064,10 +12066,10 @@
         <v>446</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -12093,10 +12095,10 @@
         <v>446</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -12122,10 +12124,10 @@
         <v>446</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -12151,10 +12153,10 @@
         <v>444</v>
       </c>
       <c r="F60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
@@ -12180,10 +12182,10 @@
         <v>444</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -12209,10 +12211,10 @@
         <v>444</v>
       </c>
       <c r="F62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="8"/>
@@ -12238,10 +12240,10 @@
         <v>444</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -12267,10 +12269,10 @@
         <v>444</v>
       </c>
       <c r="F64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -12296,10 +12298,10 @@
         <v>444</v>
       </c>
       <c r="F65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -12328,7 +12330,7 @@
         <v>476</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="8"/>
@@ -12354,10 +12356,10 @@
         <v>444</v>
       </c>
       <c r="F67" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
@@ -12383,10 +12385,10 @@
         <v>444</v>
       </c>
       <c r="F68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -12412,10 +12414,10 @@
         <v>444</v>
       </c>
       <c r="F69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="8"/>
@@ -12441,10 +12443,10 @@
         <v>444</v>
       </c>
       <c r="F70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -12470,10 +12472,10 @@
         <v>444</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -12499,10 +12501,10 @@
         <v>444</v>
       </c>
       <c r="F72" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="8"/>
@@ -12528,10 +12530,10 @@
         <v>444</v>
       </c>
       <c r="F73" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -12557,10 +12559,10 @@
         <v>444</v>
       </c>
       <c r="F74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -12586,10 +12588,10 @@
         <v>444</v>
       </c>
       <c r="F75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8"/>
@@ -12615,10 +12617,10 @@
         <v>444</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -12644,10 +12646,10 @@
         <v>444</v>
       </c>
       <c r="F77" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -12673,10 +12675,10 @@
         <v>444</v>
       </c>
       <c r="F78" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -12702,10 +12704,10 @@
         <v>444</v>
       </c>
       <c r="F79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -12728,13 +12730,13 @@
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F80" t="s">
         <v>145</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -12757,13 +12759,13 @@
         <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F81" t="s">
         <v>145</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -12786,13 +12788,13 @@
         <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F82" t="s">
         <v>145</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
@@ -12815,13 +12817,13 @@
         <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F83" t="s">
         <v>145</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -12844,13 +12846,13 @@
         <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F84" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -12873,13 +12875,13 @@
         <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F85" t="s">
         <v>145</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -12902,13 +12904,13 @@
         <v>158</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F86" t="s">
         <v>145</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -12931,13 +12933,13 @@
         <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F87" t="s">
         <v>159</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8"/>
@@ -12960,13 +12962,13 @@
         <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F88" t="s">
         <v>159</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -12989,13 +12991,13 @@
         <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F89" t="s">
         <v>159</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -13018,13 +13020,13 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F90" t="s">
         <v>159</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -13047,13 +13049,13 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F91" t="s">
         <v>159</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -13076,13 +13078,13 @@
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F92" t="s">
         <v>159</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -13105,13 +13107,13 @@
         <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F93" t="s">
         <v>159</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -13134,13 +13136,13 @@
         <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F94" t="s">
         <v>159</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -13163,13 +13165,13 @@
         <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F95" t="s">
         <v>159</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -13192,13 +13194,13 @@
         <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F96" t="s">
         <v>159</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -13224,10 +13226,10 @@
         <v>444</v>
       </c>
       <c r="F97" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -13253,10 +13255,10 @@
         <v>444</v>
       </c>
       <c r="F98" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -13282,10 +13284,10 @@
         <v>444</v>
       </c>
       <c r="F99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -13314,7 +13316,7 @@
         <v>476</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
@@ -13343,7 +13345,7 @@
         <v>476</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -13372,7 +13374,7 @@
         <v>476</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -13398,10 +13400,10 @@
         <v>447</v>
       </c>
       <c r="F103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="8"/>
@@ -13427,10 +13429,10 @@
         <v>447</v>
       </c>
       <c r="F104" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8"/>
@@ -13456,10 +13458,10 @@
         <v>447</v>
       </c>
       <c r="F105" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8"/>
@@ -13485,10 +13487,10 @@
         <v>447</v>
       </c>
       <c r="F106" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -13514,10 +13516,10 @@
         <v>444</v>
       </c>
       <c r="F107" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -13543,10 +13545,10 @@
         <v>444</v>
       </c>
       <c r="F108" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -13572,10 +13574,10 @@
         <v>444</v>
       </c>
       <c r="F109" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -13601,10 +13603,10 @@
         <v>444</v>
       </c>
       <c r="F110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -13630,10 +13632,10 @@
         <v>444</v>
       </c>
       <c r="F111" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -13659,10 +13661,10 @@
         <v>444</v>
       </c>
       <c r="F112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -13688,10 +13690,10 @@
         <v>444</v>
       </c>
       <c r="F113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -13717,10 +13719,10 @@
         <v>444</v>
       </c>
       <c r="F114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -13746,10 +13748,10 @@
         <v>444</v>
       </c>
       <c r="F115" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -13775,10 +13777,10 @@
         <v>448</v>
       </c>
       <c r="F116" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -13804,10 +13806,10 @@
         <v>448</v>
       </c>
       <c r="F117" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -13833,10 +13835,10 @@
         <v>448</v>
       </c>
       <c r="F118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -13862,10 +13864,10 @@
         <v>448</v>
       </c>
       <c r="F119" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -13891,10 +13893,10 @@
         <v>449</v>
       </c>
       <c r="F120" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -13920,10 +13922,10 @@
         <v>449</v>
       </c>
       <c r="F121" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -13949,10 +13951,10 @@
         <v>449</v>
       </c>
       <c r="F122" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -13978,10 +13980,10 @@
         <v>449</v>
       </c>
       <c r="F123" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="7"/>
@@ -14007,10 +14009,10 @@
         <v>449</v>
       </c>
       <c r="F124" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="7"/>
@@ -14036,10 +14038,10 @@
         <v>449</v>
       </c>
       <c r="F125" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="7"/>
@@ -14065,10 +14067,10 @@
         <v>450</v>
       </c>
       <c r="F126" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -14094,10 +14096,10 @@
         <v>450</v>
       </c>
       <c r="F127" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="9"/>
@@ -14123,10 +14125,10 @@
         <v>444</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8"/>
@@ -14155,7 +14157,7 @@
         <v>243</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8"/>
@@ -14181,10 +14183,10 @@
         <v>444</v>
       </c>
       <c r="F130" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="8"/>
@@ -14210,10 +14212,10 @@
         <v>444</v>
       </c>
       <c r="F131" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8"/>
@@ -14239,10 +14241,10 @@
         <v>469</v>
       </c>
       <c r="F132" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="8"/>
@@ -14268,10 +14270,10 @@
         <v>469</v>
       </c>
       <c r="F133" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="8"/>
@@ -14297,10 +14299,10 @@
         <v>449</v>
       </c>
       <c r="F134" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
@@ -14326,10 +14328,10 @@
         <v>444</v>
       </c>
       <c r="F135" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
@@ -14355,10 +14357,10 @@
         <v>444</v>
       </c>
       <c r="F136" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -14384,10 +14386,10 @@
         <v>444</v>
       </c>
       <c r="F137" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -14413,10 +14415,10 @@
         <v>444</v>
       </c>
       <c r="F138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -14442,10 +14444,10 @@
         <v>444</v>
       </c>
       <c r="F139" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -14471,10 +14473,10 @@
         <v>449</v>
       </c>
       <c r="F140" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -14500,10 +14502,10 @@
         <v>449</v>
       </c>
       <c r="F141" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -14529,10 +14531,10 @@
         <v>449</v>
       </c>
       <c r="F142" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -14558,10 +14560,10 @@
         <v>449</v>
       </c>
       <c r="F143" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -14587,10 +14589,10 @@
         <v>449</v>
       </c>
       <c r="F144" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -14616,10 +14618,10 @@
         <v>444</v>
       </c>
       <c r="F145" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -14645,10 +14647,10 @@
         <v>444</v>
       </c>
       <c r="F146" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="9"/>
@@ -14674,10 +14676,10 @@
         <v>444</v>
       </c>
       <c r="F147" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="8"/>
@@ -14703,10 +14705,10 @@
         <v>444</v>
       </c>
       <c r="F148" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -14732,10 +14734,10 @@
         <v>451</v>
       </c>
       <c r="F149" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -14761,10 +14763,10 @@
         <v>451</v>
       </c>
       <c r="F150" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -14790,10 +14792,10 @@
         <v>451</v>
       </c>
       <c r="F151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -14819,10 +14821,10 @@
         <v>451</v>
       </c>
       <c r="F152" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -14851,7 +14853,7 @@
         <v>476</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="8"/>
@@ -14880,7 +14882,7 @@
         <v>476</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="8"/>
@@ -14909,7 +14911,7 @@
         <v>476</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="7"/>
@@ -14938,7 +14940,7 @@
         <v>476</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="7"/>
@@ -14967,7 +14969,7 @@
         <v>476</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -14996,7 +14998,7 @@
         <v>476</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -15025,7 +15027,7 @@
         <v>476</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -15054,7 +15056,7 @@
         <v>476</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
@@ -15083,7 +15085,7 @@
         <v>476</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -15112,7 +15114,7 @@
         <v>476</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -15138,10 +15140,10 @@
         <v>444</v>
       </c>
       <c r="F163" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -15167,10 +15169,10 @@
         <v>444</v>
       </c>
       <c r="F164" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -15196,10 +15198,10 @@
         <v>444</v>
       </c>
       <c r="F165" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
@@ -15228,7 +15230,7 @@
         <v>476</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
@@ -15257,7 +15259,7 @@
         <v>476</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
@@ -15286,7 +15288,7 @@
         <v>476</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
@@ -15315,7 +15317,7 @@
         <v>476</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H169" s="9"/>
       <c r="I169" s="10"/>
@@ -15341,10 +15343,10 @@
         <v>452</v>
       </c>
       <c r="F170" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="10"/>
@@ -15370,10 +15372,10 @@
         <v>452</v>
       </c>
       <c r="F171" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="10"/>
@@ -15399,10 +15401,10 @@
         <v>452</v>
       </c>
       <c r="F172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="10"/>
@@ -15428,10 +15430,10 @@
         <v>444</v>
       </c>
       <c r="F173" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -15457,10 +15459,10 @@
         <v>444</v>
       </c>
       <c r="F174" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -15486,10 +15488,10 @@
         <v>444</v>
       </c>
       <c r="F175" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -15515,10 +15517,10 @@
         <v>444</v>
       </c>
       <c r="F176" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
@@ -15544,10 +15546,10 @@
         <v>444</v>
       </c>
       <c r="F177" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
@@ -15573,10 +15575,10 @@
         <v>444</v>
       </c>
       <c r="F178" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -15602,10 +15604,10 @@
         <v>444</v>
       </c>
       <c r="F179" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -15631,10 +15633,10 @@
         <v>444</v>
       </c>
       <c r="F180" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -15660,10 +15662,10 @@
         <v>444</v>
       </c>
       <c r="F181" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -15689,10 +15691,10 @@
         <v>444</v>
       </c>
       <c r="F182" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -15718,10 +15720,10 @@
         <v>444</v>
       </c>
       <c r="F183" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H183" s="7"/>
       <c r="I183" s="9"/>
@@ -15747,10 +15749,10 @@
         <v>453</v>
       </c>
       <c r="F184" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -15776,10 +15778,10 @@
         <v>453</v>
       </c>
       <c r="F185" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -15805,10 +15807,10 @@
         <v>453</v>
       </c>
       <c r="F186" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -15834,10 +15836,10 @@
         <v>453</v>
       </c>
       <c r="F187" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H187" s="7"/>
       <c r="I187" s="8"/>
@@ -15863,10 +15865,10 @@
         <v>444</v>
       </c>
       <c r="F188" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -15892,10 +15894,10 @@
         <v>454</v>
       </c>
       <c r="F189" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="9"/>
@@ -15921,10 +15923,10 @@
         <v>454</v>
       </c>
       <c r="F190" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H190" s="7"/>
       <c r="I190" s="9"/>
@@ -15950,10 +15952,10 @@
         <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H191" s="7"/>
       <c r="I191" s="8"/>
@@ -15979,10 +15981,10 @@
         <v>444</v>
       </c>
       <c r="F192" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
@@ -16008,10 +16010,10 @@
         <v>444</v>
       </c>
       <c r="F193" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="8"/>
@@ -16037,10 +16039,10 @@
         <v>474</v>
       </c>
       <c r="F194" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H194" s="7"/>
       <c r="I194" s="8"/>
@@ -16069,7 +16071,7 @@
         <v>476</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H195" s="16"/>
       <c r="I195" s="16"/>
@@ -16095,10 +16097,10 @@
         <v>444</v>
       </c>
       <c r="F196" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H196" s="7"/>
       <c r="I196" s="8"/>
@@ -16124,10 +16126,10 @@
         <v>444</v>
       </c>
       <c r="F197" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="8"/>
@@ -16153,10 +16155,10 @@
         <v>444</v>
       </c>
       <c r="F198" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="8"/>
@@ -16182,10 +16184,10 @@
         <v>455</v>
       </c>
       <c r="F199" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
@@ -16211,10 +16213,10 @@
         <v>455</v>
       </c>
       <c r="F200" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -16240,10 +16242,10 @@
         <v>455</v>
       </c>
       <c r="F201" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
@@ -16269,10 +16271,10 @@
         <v>455</v>
       </c>
       <c r="F202" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
@@ -16295,13 +16297,13 @@
         <v>391</v>
       </c>
       <c r="E203" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F203" t="s">
         <v>485</v>
       </c>
-      <c r="F203" t="s">
-        <v>486</v>
-      </c>
       <c r="G203" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
@@ -16324,13 +16326,13 @@
         <v>393</v>
       </c>
       <c r="E204" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F204" t="s">
         <v>485</v>
       </c>
-      <c r="F204" t="s">
-        <v>486</v>
-      </c>
       <c r="G204" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
@@ -16353,13 +16355,13 @@
         <v>395</v>
       </c>
       <c r="E205" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F205" t="s">
         <v>485</v>
       </c>
-      <c r="F205" t="s">
-        <v>486</v>
-      </c>
       <c r="G205" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
@@ -16382,13 +16384,13 @@
         <v>397</v>
       </c>
       <c r="E206" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F206" t="s">
         <v>485</v>
       </c>
-      <c r="F206" t="s">
-        <v>486</v>
-      </c>
       <c r="G206" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
@@ -16411,13 +16413,13 @@
         <v>399</v>
       </c>
       <c r="E207" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F207" t="s">
         <v>485</v>
       </c>
-      <c r="F207" t="s">
-        <v>486</v>
-      </c>
       <c r="G207" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
@@ -16440,13 +16442,13 @@
         <v>401</v>
       </c>
       <c r="E208" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F208" t="s">
         <v>485</v>
       </c>
-      <c r="F208" t="s">
-        <v>486</v>
-      </c>
       <c r="G208" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
@@ -16469,13 +16471,13 @@
         <v>403</v>
       </c>
       <c r="E209" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F209" t="s">
         <v>485</v>
       </c>
-      <c r="F209" t="s">
-        <v>486</v>
-      </c>
       <c r="G209" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -16498,13 +16500,13 @@
         <v>405</v>
       </c>
       <c r="E210" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F210" t="s">
         <v>404</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
@@ -16527,13 +16529,13 @@
         <v>407</v>
       </c>
       <c r="E211" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F211" t="s">
         <v>404</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H211" s="7"/>
       <c r="I211" s="9"/>
@@ -16556,13 +16558,13 @@
         <v>409</v>
       </c>
       <c r="E212" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F212" t="s">
         <v>404</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
@@ -16588,10 +16590,10 @@
         <v>454</v>
       </c>
       <c r="F213" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
@@ -16617,10 +16619,10 @@
         <v>454</v>
       </c>
       <c r="F214" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
@@ -16646,10 +16648,10 @@
         <v>454</v>
       </c>
       <c r="F215" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
@@ -16678,7 +16680,7 @@
         <v>416</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
@@ -16707,7 +16709,7 @@
         <v>416</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
@@ -16736,7 +16738,7 @@
         <v>416</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
@@ -16765,7 +16767,7 @@
         <v>422</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
@@ -16794,7 +16796,7 @@
         <v>422</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
@@ -16823,7 +16825,7 @@
         <v>422</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
@@ -16852,7 +16854,7 @@
         <v>428</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
@@ -16881,7 +16883,7 @@
         <v>428</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
@@ -16910,7 +16912,7 @@
         <v>428</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
@@ -16939,7 +16941,7 @@
         <v>434</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
@@ -16968,7 +16970,7 @@
         <v>434</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -16997,7 +16999,7 @@
         <v>434</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -17026,7 +17028,7 @@
         <v>434</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
@@ -17039,8 +17041,8 @@
   <autoFilter ref="A1:M228"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" fitToHeight="0" orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -2161,19 +2161,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DB2 has different implementation of materialized view - see listing 3.6</t>
         </r>
       </text>
     </comment>
@@ -2185,19 +2185,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access does not support materialized views.</t>
         </r>
       </text>
     </comment>
@@ -2209,7 +2209,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Ben Clothier:</t>
         </r>
@@ -2218,7 +2218,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Implemented as an indexed view.</t>
@@ -2233,19 +2233,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MySQL does not support materialized views.</t>
         </r>
       </text>
     </comment>
@@ -2257,7 +2257,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Ben Clothier:</t>
         </r>
@@ -2266,7 +2266,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Cannot test due to a licensing restriction.
@@ -9882,7 +9882,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9963,32 +9963,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -10408,7 +10382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10423,7 +10397,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="0" windowWidth="22425" windowHeight="17520"/>
+    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -1889,6 +1889,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K46" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>John Viescas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not included because MySQL is case-insensitive.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I47" authorId="0">
       <text>
         <r>
@@ -7599,7 +7623,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Access does not support Common Table Expressions.</t>
+Access does not support recursive Common Table Expressions.</t>
         </r>
       </text>
     </comment>
@@ -7887,7 +7911,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Access does not support Common Table Expressions.</t>
+Emulated using saved queries.</t>
         </r>
       </text>
     </comment>
@@ -7935,7 +7959,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Access does not support Common Table Expressions.</t>
+Emulated using saved queries.</t>
         </r>
       </text>
     </comment>
@@ -7983,7 +8007,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Access does not support Common Table Expressions.</t>
+Emulated using saved queries.</t>
         </r>
       </text>
     </comment>
@@ -8400,7 +8424,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="493">
   <si>
     <t>Chapter</t>
   </si>
@@ -9876,6 +9900,9 @@
   </si>
   <si>
     <t>Item20***Example</t>
+  </si>
+  <si>
+    <t>Item55Example, SalesOrdersSample</t>
   </si>
 </sst>
 </file>
@@ -10073,9 +10100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10106,11 +10141,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Listings_1" xfId="1"/>
   </cellStyles>
@@ -10395,27 +10438,27 @@
   </sheetPr>
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55:M55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10456,7 +10499,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10479,7 +10522,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10508,7 +10551,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10537,7 +10580,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10566,7 +10609,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10595,7 +10638,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10624,7 +10667,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10653,7 +10696,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10682,7 +10725,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10711,7 +10754,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10740,7 +10783,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10769,7 +10812,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10798,7 +10841,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10827,7 +10870,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10850,7 +10893,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10873,7 +10916,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -10902,7 +10945,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10931,7 +10974,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -10960,7 +11003,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -10989,7 +11032,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11018,7 +11061,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11047,7 +11090,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11076,7 +11119,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11105,7 +11148,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11134,7 +11177,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11163,7 +11206,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11192,7 +11235,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11221,7 +11264,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11250,7 +11293,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11279,7 +11322,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11308,7 +11351,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11337,7 +11380,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11366,7 +11409,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11395,7 +11438,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11424,7 +11467,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11453,7 +11496,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11482,7 +11525,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11511,7 +11554,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11540,7 +11583,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11569,7 +11612,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11598,7 +11641,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11622,7 +11665,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11646,7 +11689,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11675,7 +11718,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11704,7 +11747,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11729,11 +11772,11 @@
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11762,7 +11805,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11791,7 +11834,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11820,7 +11863,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11849,7 +11892,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11878,7 +11921,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -11907,7 +11950,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -11936,7 +11979,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -11965,7 +12008,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -11994,7 +12037,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12023,7 +12066,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12052,7 +12095,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12081,7 +12124,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12110,7 +12153,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12139,7 +12182,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12168,7 +12211,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12197,7 +12240,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12226,7 +12269,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12255,7 +12298,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12284,7 +12327,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12313,7 +12356,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12342,7 +12385,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12371,7 +12414,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12400,7 +12443,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12429,7 +12472,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12458,7 +12501,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12487,7 +12530,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12516,7 +12559,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12545,7 +12588,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12574,7 +12617,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12603,7 +12646,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12632,7 +12675,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12661,7 +12704,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12690,7 +12733,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12719,7 +12762,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12748,7 +12791,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12777,7 +12820,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12806,7 +12849,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12835,7 +12878,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12864,7 +12907,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -12893,7 +12936,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -12922,7 +12965,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -12951,7 +12994,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -12980,7 +13023,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13009,7 +13052,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13038,7 +13081,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13067,7 +13110,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13096,7 +13139,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13125,7 +13168,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13154,7 +13197,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13183,7 +13226,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13212,7 +13255,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13241,7 +13284,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13270,7 +13313,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13299,7 +13342,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13328,7 +13371,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13357,7 +13400,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13386,7 +13429,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13415,7 +13458,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13444,7 +13487,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13473,7 +13516,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13487,7 +13530,7 @@
         <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F107" t="s">
         <v>485</v>
@@ -13502,7 +13545,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13516,7 +13559,7 @@
         <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
         <v>485</v>
@@ -13531,7 +13574,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13560,7 +13603,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13589,7 +13632,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13618,7 +13661,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13647,7 +13690,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13676,7 +13719,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13705,7 +13748,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13734,7 +13777,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13763,7 +13806,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13792,7 +13835,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13821,7 +13864,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13850,7 +13893,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13879,7 +13922,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -13908,7 +13951,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -13937,7 +13980,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -13966,7 +14009,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -13995,7 +14038,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14024,7 +14067,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14053,7 +14096,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14082,7 +14125,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14111,7 +14154,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14140,7 +14183,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14169,7 +14212,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14198,7 +14241,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14227,7 +14270,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14256,7 +14299,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14285,7 +14328,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14314,7 +14357,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14343,7 +14386,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14372,7 +14415,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14401,7 +14444,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14430,7 +14473,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14459,7 +14502,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14488,7 +14531,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14517,7 +14560,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14546,7 +14589,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14575,7 +14618,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14604,7 +14647,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14633,7 +14676,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14662,7 +14705,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14691,7 +14734,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14720,7 +14763,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14749,7 +14792,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14778,7 +14821,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14807,7 +14850,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14836,7 +14879,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14865,7 +14908,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -14894,7 +14937,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -14923,7 +14966,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -14952,7 +14995,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -14981,7 +15024,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15010,7 +15053,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15039,7 +15082,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15068,7 +15111,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15097,7 +15140,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15126,7 +15169,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15155,7 +15198,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15184,7 +15227,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15213,7 +15256,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15242,7 +15285,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15271,7 +15314,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15300,7 +15343,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15329,7 +15372,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15358,7 +15401,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15387,7 +15430,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15416,7 +15459,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15445,7 +15488,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15474,7 +15517,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15503,7 +15546,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" s="3">
         <v>7</v>
       </c>
@@ -15532,7 +15575,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15561,7 +15604,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15590,7 +15633,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15619,7 +15662,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" s="3">
         <v>8</v>
       </c>
@@ -15648,7 +15691,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15677,7 +15720,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" s="3">
         <v>8</v>
       </c>
@@ -15706,7 +15749,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15735,7 +15778,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15764,7 +15807,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15793,7 +15836,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15822,7 +15865,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -15851,7 +15894,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -15880,7 +15923,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="3">
         <v>8</v>
       </c>
@@ -15909,7 +15952,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -15938,7 +15981,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -15967,7 +16010,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" s="3">
         <v>9</v>
       </c>
@@ -15996,7 +16039,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16025,7 +16068,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" s="3">
         <v>9</v>
       </c>
@@ -16054,7 +16097,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16077,13 +16120,13 @@
         <v>488</v>
       </c>
       <c r="H196" s="7"/>
-      <c r="I196" s="8"/>
+      <c r="I196" s="9"/>
       <c r="J196" s="7"/>
       <c r="K196" s="9"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16106,13 +16149,13 @@
         <v>488</v>
       </c>
       <c r="H197" s="7"/>
-      <c r="I197" s="8"/>
+      <c r="I197" s="9"/>
       <c r="J197" s="7"/>
       <c r="K197" s="9"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" s="3">
         <v>9</v>
       </c>
@@ -16135,13 +16178,13 @@
         <v>488</v>
       </c>
       <c r="H198" s="7"/>
-      <c r="I198" s="8"/>
+      <c r="I198" s="9"/>
       <c r="J198" s="7"/>
       <c r="K198" s="9"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16170,7 +16213,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16199,7 +16242,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16228,7 +16271,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -16257,7 +16300,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16271,7 +16314,7 @@
         <v>391</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="F203" t="s">
         <v>485</v>
@@ -16286,7 +16329,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16315,7 +16358,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16329,7 +16372,7 @@
         <v>395</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F205" t="s">
         <v>485</v>
@@ -16344,7 +16387,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16373,7 +16416,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16402,7 +16445,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16431,7 +16474,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -16445,7 +16488,7 @@
         <v>403</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="F209" t="s">
         <v>485</v>
@@ -16460,7 +16503,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16489,7 +16532,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16518,7 +16561,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" s="3">
         <v>9</v>
       </c>
@@ -16547,7 +16590,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16576,7 +16619,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16605,7 +16648,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -16634,7 +16677,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16663,7 +16706,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16692,7 +16735,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" s="3">
         <v>10</v>
       </c>
@@ -16721,7 +16764,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16750,7 +16793,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16779,7 +16822,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" s="3">
         <v>10</v>
       </c>
@@ -16808,7 +16851,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16837,7 +16880,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16866,7 +16909,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="3">
         <v>10</v>
       </c>
@@ -16895,7 +16938,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -16924,7 +16967,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -16953,7 +16996,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -16982,7 +17025,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" s="3">
         <v>10</v>
       </c>
@@ -17015,8 +17058,8 @@
   <autoFilter ref="A1:M228"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="17520"/>
+    <workbookView xWindow="825" yWindow="135" windowWidth="22425" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -10425,7 +10425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10433,32 +10433,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10725,7 +10725,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -10945,7 +10945,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11061,7 +11061,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11148,7 +11148,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11467,7 +11467,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11612,7 +11612,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11747,7 +11747,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11834,7 +11834,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11892,7 +11892,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11921,7 +11921,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -11950,7 +11950,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12037,7 +12037,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12095,7 +12095,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12153,7 +12153,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12182,7 +12182,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12211,7 +12211,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12269,7 +12269,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12327,7 +12327,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12385,7 +12385,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12443,7 +12443,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12472,7 +12472,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12501,7 +12501,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12530,7 +12530,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12559,7 +12559,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12588,7 +12588,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12617,7 +12617,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12704,7 +12704,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12733,7 +12733,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12762,7 +12762,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12791,7 +12791,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12849,7 +12849,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12878,7 +12878,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13226,7 +13226,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13400,7 +13400,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13458,7 +13458,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13516,7 +13516,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13545,7 +13545,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13574,7 +13574,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13632,7 +13632,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13748,7 +13748,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13893,7 +13893,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13922,7 +13922,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -13951,7 +13951,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -13980,7 +13980,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14067,7 +14067,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14096,7 +14096,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14212,7 +14212,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14241,7 +14241,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14270,7 +14270,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14328,7 +14328,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14444,7 +14444,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14531,7 +14531,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14560,7 +14560,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14589,7 +14589,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14618,7 +14618,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14647,7 +14647,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14676,7 +14676,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14850,7 +14850,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -14937,7 +14937,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -14966,7 +14966,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -14995,7 +14995,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15053,7 +15053,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15111,7 +15111,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15140,7 +15140,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15169,7 +15169,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15256,7 +15256,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15285,7 +15285,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15343,7 +15343,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15372,7 +15372,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15459,7 +15459,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15488,7 +15488,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15546,7 +15546,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>7</v>
       </c>
@@ -15575,7 +15575,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15633,7 +15633,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>8</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15720,7 +15720,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>8</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15778,7 +15778,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15807,7 +15807,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>8</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -15981,7 +15981,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -16010,7 +16010,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>9</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16068,7 +16068,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>9</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16155,7 +16155,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>9</v>
       </c>
@@ -16184,7 +16184,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16271,7 +16271,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -16300,7 +16300,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16329,7 +16329,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16416,7 +16416,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16445,7 +16445,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -16503,7 +16503,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>9</v>
       </c>
@@ -16590,7 +16590,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16619,7 +16619,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16648,7 +16648,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -16677,7 +16677,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16706,7 +16706,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16793,7 +16793,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10</v>
       </c>
@@ -16851,7 +16851,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16909,7 +16909,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -16996,7 +16996,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17025,7 +17025,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>10</v>
       </c>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27322"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="135" windowWidth="22425" windowHeight="17520"/>
+    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -10425,7 +10425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10439,26 +10439,26 @@
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10725,7 +10725,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -10945,7 +10945,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11061,7 +11061,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11148,7 +11148,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11206,7 +11206,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11322,7 +11322,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11467,7 +11467,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11525,7 +11525,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11612,7 +11612,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11641,7 +11641,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11747,7 +11747,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11834,7 +11834,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11892,7 +11892,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11921,7 +11921,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -11950,7 +11950,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12037,7 +12037,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12095,7 +12095,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12153,7 +12153,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12182,7 +12182,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12211,7 +12211,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12269,7 +12269,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12327,7 +12327,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12385,7 +12385,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12443,7 +12443,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12472,7 +12472,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12501,7 +12501,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12530,7 +12530,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12559,7 +12559,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12588,7 +12588,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12617,7 +12617,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12704,7 +12704,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12733,7 +12733,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12762,7 +12762,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12791,7 +12791,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12849,7 +12849,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12878,7 +12878,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -12965,7 +12965,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13139,7 +13139,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13226,7 +13226,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13400,7 +13400,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13458,7 +13458,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13516,7 +13516,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13545,7 +13545,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13574,7 +13574,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13603,7 +13603,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13632,7 +13632,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13748,7 +13748,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13893,7 +13893,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13922,7 +13922,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -13951,7 +13951,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -13980,7 +13980,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14067,7 +14067,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14096,7 +14096,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14212,7 +14212,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14241,7 +14241,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14270,7 +14270,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14328,7 +14328,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14444,7 +14444,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14531,7 +14531,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14560,7 +14560,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14589,7 +14589,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14618,7 +14618,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14647,7 +14647,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14676,7 +14676,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14821,7 +14821,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14850,7 +14850,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -14937,7 +14937,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -14966,7 +14966,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -14995,7 +14995,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15024,7 +15024,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15053,7 +15053,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15111,7 +15111,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15140,7 +15140,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15169,7 +15169,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15256,7 +15256,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15285,7 +15285,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15343,7 +15343,7 @@
       <c r="L169" s="8"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15372,7 +15372,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15430,7 +15430,7 @@
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15459,7 +15459,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15488,7 +15488,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15546,7 +15546,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" s="3">
         <v>7</v>
       </c>
@@ -15575,7 +15575,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15633,7 +15633,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" s="3">
         <v>8</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15720,7 +15720,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" s="3">
         <v>8</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15778,7 +15778,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15807,7 +15807,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="3">
         <v>8</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -15981,7 +15981,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -16010,7 +16010,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" s="3">
         <v>9</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16068,7 +16068,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" s="3">
         <v>9</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16155,7 +16155,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" s="3">
         <v>9</v>
       </c>
@@ -16184,7 +16184,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16271,7 +16271,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" s="3">
         <v>9</v>
       </c>
@@ -16300,7 +16300,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16329,7 +16329,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16358,7 +16358,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16387,7 +16387,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16416,7 +16416,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16445,7 +16445,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" s="3">
         <v>9</v>
       </c>
@@ -16503,7 +16503,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" s="3">
         <v>9</v>
       </c>
@@ -16590,7 +16590,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16619,7 +16619,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16648,7 +16648,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" s="3">
         <v>9</v>
       </c>
@@ -16677,7 +16677,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16706,7 +16706,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" s="3">
         <v>10</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16793,7 +16793,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" s="3">
         <v>10</v>
       </c>
@@ -16851,7 +16851,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16909,7 +16909,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" s="3">
         <v>10</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -16996,7 +16996,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17025,7 +17025,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" s="3">
         <v>10</v>
       </c>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27322"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="17520"/>
+    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="22600"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
@@ -9899,10 +9899,10 @@
     <t>&lt;No listings in item&gt;</t>
   </si>
   <si>
-    <t>Item20***Example</t>
-  </si>
-  <si>
     <t>Item55Example, SalesOrdersSample</t>
+  </si>
+  <si>
+    <t>Item20MSSQLExample</t>
   </si>
 </sst>
 </file>
@@ -10425,7 +10425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12022,7 +12022,7 @@
         <v>97</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
@@ -16372,7 +16372,7 @@
         <v>395</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F205" t="s">
         <v>485</v>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="22600"/>
+    <workbookView xWindow="825" yWindow="135" windowWidth="22425" windowHeight="19425"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listings!$A$1:$M$228</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Listings!$A$2:$M$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listings!$A$1:$M$227</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Listings!$A$2:$M$227</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Listings!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -5919,7 +5919,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -5943,7 +5943,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -5967,31 +5967,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L160" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -6015,7 +6015,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -6159,7 +6159,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6183,7 +6183,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6207,7 +6207,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6231,31 +6231,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M162" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L162" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6499,27 +6499,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="H165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
+    <comment ref="H165" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+INFORMATION_SCHEMA does not exists on DB2 for LUW but is reported to exist on iSeries. Untested.</t>
         </r>
       </text>
     </comment>
@@ -6543,79 +6543,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L165" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oracle does not support INFORMATION_SCHEMA</t>
         </r>
       </text>
     </comment>
@@ -6811,6 +6763,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MySQL does not support INFORMATION_SCHEMA.VIEW_COLUMN_USAGE</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L168" authorId="2">
       <text>
         <r>
@@ -6835,7 +6811,271 @@
         </r>
       </text>
     </comment>
-    <comment ref="H169" authorId="2">
+    <comment ref="I169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -6855,59 +7095,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-INFORMATION_SCHEMA does not exists on DB2 for LUW but is reported to exist on iSeries. Untested.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-MySQL does not support INFORMATION_SCHEMA.VIEW_COLUMN_USAGE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L169" authorId="2">
+Modified the index definition to index over 3 columns because DB2 does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -6927,275 +7119,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Oracle does not support INFORMATION_SCHEMA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I170" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H177" authorId="2">
+Modified the index definition to index over 3 columns because Access does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7215,11 +7143,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because DB2 does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I177" authorId="2">
+Modified the index definition to index over 3 columns because MySQL does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7239,11 +7167,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because Access does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K177" authorId="2">
+Modified the index definition to index over 3 columns because Oracle does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7263,58 +7191,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because MySQL does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L177" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Modified the index definition to index over 3 columns because Oracle does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M177" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 Modified the index definition to index over 3 columns because PostgreSQL does not support INCLUDE</t>
         </r>
       </text>
     </comment>
+    <comment ref="I177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Query in SalesOrders.accdb</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I178" authorId="0">
       <text>
         <r>
@@ -7387,31 +7291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I181" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Query in SalesOrders.accdb</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I183" authorId="1">
+    <comment ref="I182" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7435,7 +7315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K183" authorId="2">
+    <comment ref="K182" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7459,7 +7339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I187" authorId="1">
+    <comment ref="I186" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7483,7 +7363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K187" authorId="2">
+    <comment ref="K186" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7507,7 +7387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I189" authorId="1">
+    <comment ref="I188" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7531,7 +7411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K189" authorId="1">
+    <comment ref="K188" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7555,7 +7435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I190" authorId="1">
+    <comment ref="I189" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7579,7 +7459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K190" authorId="1">
+    <comment ref="K189" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7603,7 +7483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I191" authorId="1">
+    <comment ref="I190" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7627,7 +7507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K191" authorId="0">
+    <comment ref="K190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7651,7 +7531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="1">
+    <comment ref="I192" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7675,7 +7555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K193" authorId="0">
+    <comment ref="K192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7699,7 +7579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I194" authorId="1">
+    <comment ref="I193" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7723,6 +7603,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="K193" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MySQL does not supports CTE and window functions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K194" authorId="2">
       <text>
         <r>
@@ -7743,11 +7719,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-MySQL does not supports CTE and window functions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H195" authorId="2">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L194" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7771,7 +7747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I195" authorId="2">
+    <comment ref="M194" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7795,103 +7771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I196" authorId="1">
+    <comment ref="I195" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7915,7 +7795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K196" authorId="1">
+    <comment ref="K195" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7939,7 +7819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I197" authorId="1">
+    <comment ref="I196" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7963,7 +7843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K197" authorId="1">
+    <comment ref="K196" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7987,7 +7867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I198" authorId="1">
+    <comment ref="I197" authorId="1">
       <text>
         <r>
           <rPr>
@@ -8011,7 +7891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K198" authorId="1">
+    <comment ref="K197" authorId="1">
       <text>
         <r>
           <rPr>
@@ -8035,6 +7915,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Query included in StudentGradesExample.accdb</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I199" authorId="0">
       <text>
         <r>
@@ -8127,7 +8031,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in StudentGradesExample.accdb</t>
+Query included in Item55.accdb</t>
         </r>
       </text>
     </comment>
@@ -8295,7 +8199,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in Item55.accdb</t>
+Query included in Item56.accdb</t>
         </r>
       </text>
     </comment>
@@ -8319,83 +8223,59 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in Item56.accdb</t>
+Two separate queries in Item56.accdb</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L210" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Could not create rCTE containing dates. Modified to do rCTE and generate dates outside the rCTE.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M210" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It is not trivial to calculate a date from an arbitrary epoch as was done for other listings. Thus, rCTE was modified to both add a number and a date.</t>
         </r>
       </text>
     </comment>
     <comment ref="I211" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Two separate queries in Item56.accdb</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L211" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Could not create rCTE containing dates. Modified to do rCTE and generate dates outside the rCTE.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M211" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-It is not trivial to calculate a date from an arbitrary epoch as was done for other listings. Thus, rCTE was modified to both add a number and a date.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8424,7 +8304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="491">
   <si>
     <t>Chapter</t>
   </si>
@@ -9438,12 +9318,6 @@
   </si>
   <si>
     <t>Query to find order details for a particular product</t>
-  </si>
-  <si>
-    <t>Listing 7.25</t>
-  </si>
-  <si>
-    <t>Index to cover the query in Listing L.7.46.4</t>
   </si>
   <si>
     <t>Listing 8.1</t>
@@ -10425,7 +10299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10436,29 +10310,29 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10472,34 +10346,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10507,22 +10381,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10533,16 +10407,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10551,7 +10425,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10565,13 +10439,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -10580,7 +10454,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10594,13 +10468,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10609,7 +10483,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10623,13 +10497,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -10638,7 +10512,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10652,13 +10526,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -10667,7 +10541,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10681,13 +10555,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -10696,7 +10570,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10710,13 +10584,13 @@
         <v>16</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
@@ -10725,7 +10599,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10739,13 +10613,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -10754,7 +10628,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10768,13 +10642,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -10783,7 +10657,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10797,13 +10671,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10812,7 +10686,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10826,13 +10700,13 @@
         <v>22</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -10841,7 +10715,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10855,13 +10729,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10870,7 +10744,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10878,22 +10752,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10901,22 +10775,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -10930,13 +10804,13 @@
         <v>28</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
@@ -10945,7 +10819,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10959,13 +10833,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -10974,7 +10848,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -10988,13 +10862,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
@@ -11003,7 +10877,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11017,13 +10891,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -11032,7 +10906,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11046,13 +10920,13 @@
         <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -11061,7 +10935,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11072,16 +10946,16 @@
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -11090,7 +10964,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11104,13 +10978,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -11119,7 +10993,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11133,13 +11007,13 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -11148,7 +11022,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11162,13 +11036,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -11177,7 +11051,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11191,13 +11065,13 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -11206,7 +11080,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11220,13 +11094,13 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -11235,7 +11109,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11249,13 +11123,13 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -11264,7 +11138,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11278,13 +11152,13 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -11293,7 +11167,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11307,13 +11181,13 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -11322,7 +11196,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11336,13 +11210,13 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -11351,7 +11225,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11365,13 +11239,13 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -11380,7 +11254,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11394,13 +11268,13 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -11409,7 +11283,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11423,13 +11297,13 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
@@ -11438,7 +11312,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11452,13 +11326,13 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
@@ -11467,7 +11341,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11481,13 +11355,13 @@
         <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>62</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
@@ -11496,7 +11370,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11510,13 +11384,13 @@
         <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -11525,7 +11399,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11539,13 +11413,13 @@
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F38" t="s">
         <v>66</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
@@ -11554,7 +11428,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11568,13 +11442,13 @@
         <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F39" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -11583,7 +11457,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11597,13 +11471,13 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -11612,7 +11486,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11626,13 +11500,13 @@
         <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
@@ -11641,7 +11515,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11649,23 +11523,23 @@
         <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11673,23 +11547,23 @@
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11703,13 +11577,13 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -11718,7 +11592,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11732,13 +11606,13 @@
         <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -11747,7 +11621,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11761,13 +11635,13 @@
         <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
@@ -11776,7 +11650,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11790,13 +11664,13 @@
         <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F47" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
@@ -11805,7 +11679,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11819,13 +11693,13 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -11834,7 +11708,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11848,13 +11722,13 @@
         <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
@@ -11863,7 +11737,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11877,13 +11751,13 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -11892,7 +11766,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11906,13 +11780,13 @@
         <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -11921,7 +11795,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -11935,13 +11809,13 @@
         <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -11950,7 +11824,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -11964,13 +11838,13 @@
         <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -11979,7 +11853,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -11993,13 +11867,13 @@
         <v>95</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
@@ -12008,7 +11882,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12022,13 +11896,13 @@
         <v>97</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -12037,7 +11911,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12051,13 +11925,13 @@
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -12066,7 +11940,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12080,13 +11954,13 @@
         <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -12095,7 +11969,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12109,13 +11983,13 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F58" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -12124,7 +11998,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12138,13 +12012,13 @@
         <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -12153,7 +12027,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12167,13 +12041,13 @@
         <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
@@ -12182,7 +12056,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12196,13 +12070,13 @@
         <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -12211,7 +12085,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12225,13 +12099,13 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="8"/>
@@ -12240,7 +12114,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12254,13 +12128,13 @@
         <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -12269,7 +12143,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12283,13 +12157,13 @@
         <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -12298,7 +12172,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12312,13 +12186,13 @@
         <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F65" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -12327,7 +12201,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12341,13 +12215,13 @@
         <v>121</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F66" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="8"/>
@@ -12356,7 +12230,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12370,13 +12244,13 @@
         <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
@@ -12385,7 +12259,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12399,13 +12273,13 @@
         <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -12414,7 +12288,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12428,13 +12302,13 @@
         <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F69" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="8"/>
@@ -12443,7 +12317,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12457,13 +12331,13 @@
         <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -12472,7 +12346,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12486,13 +12360,13 @@
         <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -12501,7 +12375,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12515,13 +12389,13 @@
         <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F72" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="8"/>
@@ -12530,7 +12404,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12544,13 +12418,13 @@
         <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F73" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -12559,7 +12433,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12573,13 +12447,13 @@
         <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -12588,7 +12462,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12602,13 +12476,13 @@
         <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8"/>
@@ -12617,7 +12491,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12631,13 +12505,13 @@
         <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -12646,7 +12520,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12660,13 +12534,13 @@
         <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F77" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -12675,7 +12549,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12689,13 +12563,13 @@
         <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -12704,7 +12578,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12718,13 +12592,13 @@
         <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -12733,7 +12607,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12747,13 +12621,13 @@
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F80" t="s">
         <v>145</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -12762,7 +12636,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12776,13 +12650,13 @@
         <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" t="s">
         <v>145</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -12791,7 +12665,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12805,13 +12679,13 @@
         <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F82" t="s">
         <v>145</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
@@ -12820,7 +12694,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12834,13 +12708,13 @@
         <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F83" t="s">
         <v>145</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -12849,7 +12723,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12863,13 +12737,13 @@
         <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F84" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -12878,7 +12752,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12892,13 +12766,13 @@
         <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F85" t="s">
         <v>145</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -12907,7 +12781,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -12921,13 +12795,13 @@
         <v>158</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F86" t="s">
         <v>145</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -12936,7 +12810,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -12950,13 +12824,13 @@
         <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F87" t="s">
         <v>159</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8"/>
@@ -12965,7 +12839,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -12979,13 +12853,13 @@
         <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F88" t="s">
         <v>159</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -12994,7 +12868,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13008,13 +12882,13 @@
         <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F89" t="s">
         <v>159</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -13023,7 +12897,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13037,13 +12911,13 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F90" t="s">
         <v>159</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -13052,7 +12926,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13066,13 +12940,13 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F91" t="s">
         <v>159</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -13081,7 +12955,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13095,13 +12969,13 @@
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F92" t="s">
         <v>159</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -13110,7 +12984,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13124,13 +12998,13 @@
         <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F93" t="s">
         <v>159</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -13139,7 +13013,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13153,13 +13027,13 @@
         <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F94" t="s">
         <v>159</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -13168,7 +13042,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13182,13 +13056,13 @@
         <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F95" t="s">
         <v>159</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -13197,7 +13071,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13211,13 +13085,13 @@
         <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F96" t="s">
         <v>159</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -13226,7 +13100,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13240,13 +13114,13 @@
         <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F97" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -13255,7 +13129,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13269,13 +13143,13 @@
         <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -13284,7 +13158,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13298,13 +13172,13 @@
         <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -13313,7 +13187,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13327,13 +13201,13 @@
         <v>186</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F100" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
@@ -13342,7 +13216,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13356,13 +13230,13 @@
         <v>188</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F101" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -13371,7 +13245,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13385,13 +13259,13 @@
         <v>190</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F102" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -13400,7 +13274,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13414,13 +13288,13 @@
         <v>192</v>
       </c>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F103" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="8"/>
@@ -13429,7 +13303,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13443,13 +13317,13 @@
         <v>194</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F104" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8"/>
@@ -13458,7 +13332,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13472,13 +13346,13 @@
         <v>196</v>
       </c>
       <c r="E105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F105" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8"/>
@@ -13487,7 +13361,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13501,13 +13375,13 @@
         <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F106" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -13516,7 +13390,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13530,13 +13404,13 @@
         <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -13545,7 +13419,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13559,13 +13433,13 @@
         <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F108" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -13574,7 +13448,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13588,13 +13462,13 @@
         <v>204</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -13603,7 +13477,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13617,13 +13491,13 @@
         <v>206</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F110" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -13632,7 +13506,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13646,13 +13520,13 @@
         <v>208</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F111" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -13661,7 +13535,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13675,13 +13549,13 @@
         <v>210</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F112" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -13690,7 +13564,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13704,13 +13578,13 @@
         <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F113" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -13719,7 +13593,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13733,13 +13607,13 @@
         <v>214</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F114" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -13748,7 +13622,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13762,13 +13636,13 @@
         <v>216</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F115" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -13777,7 +13651,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13791,13 +13665,13 @@
         <v>218</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F116" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -13806,7 +13680,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13820,13 +13694,13 @@
         <v>220</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -13835,7 +13709,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13849,13 +13723,13 @@
         <v>222</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -13864,7 +13738,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13878,13 +13752,13 @@
         <v>224</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F119" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -13893,7 +13767,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13907,13 +13781,13 @@
         <v>226</v>
       </c>
       <c r="E120" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F120" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -13922,7 +13796,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -13936,13 +13810,13 @@
         <v>228</v>
       </c>
       <c r="E121" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -13951,7 +13825,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -13965,13 +13839,13 @@
         <v>230</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -13980,7 +13854,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -13994,13 +13868,13 @@
         <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F123" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="7"/>
@@ -14009,7 +13883,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14023,13 +13897,13 @@
         <v>234</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="7"/>
@@ -14038,7 +13912,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14052,13 +13926,13 @@
         <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="7"/>
@@ -14067,7 +13941,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14081,13 +13955,13 @@
         <v>238</v>
       </c>
       <c r="E126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -14096,7 +13970,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14110,13 +13984,13 @@
         <v>240</v>
       </c>
       <c r="E127" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="9"/>
@@ -14125,7 +13999,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14139,13 +14013,13 @@
         <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8"/>
@@ -14154,7 +14028,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14168,13 +14042,13 @@
         <v>244</v>
       </c>
       <c r="E129" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F129" t="s">
         <v>243</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8"/>
@@ -14183,7 +14057,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14197,13 +14071,13 @@
         <v>246</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="8"/>
@@ -14212,7 +14086,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14226,13 +14100,13 @@
         <v>248</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8"/>
@@ -14241,7 +14115,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14255,13 +14129,13 @@
         <v>250</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F132" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="8"/>
@@ -14270,7 +14144,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14284,13 +14158,13 @@
         <v>252</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F133" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="8"/>
@@ -14299,7 +14173,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14313,13 +14187,13 @@
         <v>254</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F134" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
@@ -14328,7 +14202,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14342,13 +14216,13 @@
         <v>256</v>
       </c>
       <c r="E135" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F135" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
@@ -14357,7 +14231,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14371,13 +14245,13 @@
         <v>258</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F136" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -14386,7 +14260,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14400,13 +14274,13 @@
         <v>260</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F137" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -14415,7 +14289,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14429,13 +14303,13 @@
         <v>262</v>
       </c>
       <c r="E138" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F138" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -14444,7 +14318,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14458,13 +14332,13 @@
         <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -14473,7 +14347,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14487,13 +14361,13 @@
         <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F140" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -14502,7 +14376,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14516,13 +14390,13 @@
         <v>272</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F141" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -14531,7 +14405,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14545,13 +14419,13 @@
         <v>274</v>
       </c>
       <c r="E142" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F142" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -14560,7 +14434,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14574,13 +14448,13 @@
         <v>266</v>
       </c>
       <c r="E143" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F143" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -14589,7 +14463,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14603,13 +14477,13 @@
         <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F144" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -14618,7 +14492,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14632,13 +14506,13 @@
         <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -14647,7 +14521,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14661,13 +14535,13 @@
         <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="9"/>
@@ -14676,7 +14550,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14690,13 +14564,13 @@
         <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="8"/>
@@ -14705,7 +14579,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14719,13 +14593,13 @@
         <v>282</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -14734,7 +14608,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14748,13 +14622,13 @@
         <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F149" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -14763,7 +14637,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14777,13 +14651,13 @@
         <v>286</v>
       </c>
       <c r="E150" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F150" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -14792,7 +14666,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14806,13 +14680,13 @@
         <v>288</v>
       </c>
       <c r="E151" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F151" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -14821,7 +14695,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14835,13 +14709,13 @@
         <v>290</v>
       </c>
       <c r="E152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F152" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -14850,7 +14724,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14864,13 +14738,13 @@
         <v>292</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F153" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="8"/>
@@ -14879,7 +14753,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14893,13 +14767,13 @@
         <v>302</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F154" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="8"/>
@@ -14908,7 +14782,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -14922,13 +14796,13 @@
         <v>304</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F155" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="7"/>
@@ -14937,7 +14811,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -14951,13 +14825,13 @@
         <v>306</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F156" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="7"/>
@@ -14966,7 +14840,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -14980,13 +14854,13 @@
         <v>308</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F157" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -14995,7 +14869,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15009,13 +14883,13 @@
         <v>310</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F158" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -15024,7 +14898,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15038,13 +14912,13 @@
         <v>312</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F159" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -15053,7 +14927,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15067,22 +14941,22 @@
         <v>314</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F160" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="7"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15096,13 +14970,13 @@
         <v>316</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F161" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -15111,7 +14985,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15125,22 +14999,22 @@
         <v>294</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="F162" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="8"/>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="L162" s="8"/>
+      <c r="M162" s="7"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15154,13 +15028,13 @@
         <v>296</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F163" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -15169,7 +15043,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15183,13 +15057,13 @@
         <v>298</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -15198,7 +15072,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15211,23 +15085,23 @@
       <c r="D165" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>444</v>
+      <c r="E165" t="s">
+        <v>473</v>
       </c>
       <c r="F165" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+        <v>486</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15241,13 +15115,13 @@
         <v>318</v>
       </c>
       <c r="E166" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F166" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
@@ -15256,7 +15130,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15270,13 +15144,13 @@
         <v>320</v>
       </c>
       <c r="E167" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F167" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
@@ -15285,7 +15159,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15299,22 +15173,22 @@
         <v>322</v>
       </c>
       <c r="E168" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F168" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
+      <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15328,22 +15202,22 @@
         <v>324</v>
       </c>
       <c r="E169" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="F169" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H169" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H169" s="7"/>
       <c r="I169" s="10"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15354,25 +15228,25 @@
         <v>325</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E170" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F170" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H170" s="7"/>
+        <v>487</v>
+      </c>
+      <c r="H170" s="8"/>
       <c r="I170" s="10"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15386,13 +15260,13 @@
         <v>327</v>
       </c>
       <c r="E171" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F171" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="10"/>
@@ -15401,7 +15275,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15414,23 +15288,23 @@
       <c r="D172" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E172" t="s">
-        <v>452</v>
+      <c r="E172" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F172" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H172" s="8"/>
-      <c r="I172" s="10"/>
+        <v>486</v>
+      </c>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15444,13 +15318,13 @@
         <v>331</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F173" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -15459,7 +15333,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15473,13 +15347,13 @@
         <v>333</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F174" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -15488,7 +15362,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15502,13 +15376,13 @@
         <v>335</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F175" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -15517,7 +15391,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15531,27 +15405,27 @@
         <v>337</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F176" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
+        <v>486</v>
+      </c>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B177" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>338</v>
@@ -15559,23 +15433,23 @@
       <c r="D177" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>444</v>
+      <c r="E177" t="s">
+        <v>442</v>
       </c>
       <c r="F177" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15589,13 +15463,13 @@
         <v>341</v>
       </c>
       <c r="E178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F178" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -15604,7 +15478,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15618,13 +15492,13 @@
         <v>343</v>
       </c>
       <c r="E179" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F179" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -15633,7 +15507,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15647,13 +15521,13 @@
         <v>345</v>
       </c>
       <c r="E180" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F180" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -15662,12 +15536,12 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>8</v>
       </c>
       <c r="B181" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>346</v>
@@ -15676,13 +15550,13 @@
         <v>347</v>
       </c>
       <c r="E181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F181" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -15691,7 +15565,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15705,51 +15579,51 @@
         <v>349</v>
       </c>
       <c r="E182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F182" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
+      <c r="I182" s="9"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="9"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>8</v>
       </c>
       <c r="B183" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E183" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F183" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H183" s="7"/>
-      <c r="I183" s="9"/>
+      <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="9"/>
+      <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15763,13 +15637,13 @@
         <v>357</v>
       </c>
       <c r="E184" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F184" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -15778,7 +15652,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15792,13 +15666,13 @@
         <v>359</v>
       </c>
       <c r="E185" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F185" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -15807,7 +15681,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15815,28 +15689,28 @@
         <v>49</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E186" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F186" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
+      <c r="I186" s="8"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
+      <c r="K186" s="8"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15850,51 +15724,51 @@
         <v>353</v>
       </c>
       <c r="E187" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F187" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H187" s="7"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="8"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
       <c r="B188" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F188" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
+      <c r="I188" s="9"/>
       <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
+      <c r="K188" s="9"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -15908,13 +15782,13 @@
         <v>363</v>
       </c>
       <c r="E189" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F189" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="9"/>
@@ -15923,12 +15797,12 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B190" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>364</v>
@@ -15936,23 +15810,23 @@
       <c r="D190" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E190" t="s">
-        <v>454</v>
+      <c r="E190" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F190" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H190" s="7"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="8"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="9"/>
+      <c r="K190" s="8"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -15966,22 +15840,22 @@
         <v>367</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F191" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H191" s="7"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="K191" s="8"/>
+      <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -15995,27 +15869,27 @@
         <v>369</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F192" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
+      <c r="I192" s="8"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
+      <c r="K192" s="13"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>9</v>
       </c>
       <c r="B193" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>370</v>
@@ -16023,23 +15897,23 @@
       <c r="D193" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>444</v>
+      <c r="E193" t="s">
+        <v>472</v>
       </c>
       <c r="F193" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="8"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="13"/>
+      <c r="K193" s="8"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16052,28 +15926,28 @@
       <c r="D194" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F194" t="s">
         <v>474</v>
       </c>
-      <c r="F194" t="s">
-        <v>485</v>
-      </c>
       <c r="G194" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H194" s="7"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="7"/>
-    </row>
-    <row r="195" spans="1:13">
+        <v>486</v>
+      </c>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="16"/>
+      <c r="L194" s="16"/>
+      <c r="M194" s="16"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>9</v>
       </c>
       <c r="B195" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>374</v>
@@ -16081,23 +15955,23 @@
       <c r="D195" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>467</v>
+      <c r="E195" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F195" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H195" s="16"/>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16"/>
-      <c r="K195" s="16"/>
-      <c r="L195" s="16"/>
-      <c r="M195" s="16"/>
-    </row>
-    <row r="196" spans="1:13">
+        <v>486</v>
+      </c>
+      <c r="H195" s="7"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16111,13 +15985,13 @@
         <v>377</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F196" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H196" s="7"/>
       <c r="I196" s="9"/>
@@ -16126,7 +16000,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16140,13 +16014,13 @@
         <v>379</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F197" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="9"/>
@@ -16155,36 +16029,36 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>9</v>
       </c>
       <c r="B198" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>444</v>
+        <v>387</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="F198" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H198" s="7"/>
-      <c r="I198" s="9"/>
+      <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="9"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16192,19 +16066,19 @@
         <v>54</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E199" s="14" t="s">
-        <v>455</v>
+        <v>381</v>
+      </c>
+      <c r="E199" t="s">
+        <v>453</v>
       </c>
       <c r="F199" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
@@ -16213,7 +16087,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16227,13 +16101,13 @@
         <v>383</v>
       </c>
       <c r="E200" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F200" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -16242,7 +16116,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16256,13 +16130,13 @@
         <v>385</v>
       </c>
       <c r="E201" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F201" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
@@ -16271,27 +16145,27 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>9</v>
       </c>
       <c r="B202" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E202" t="s">
-        <v>455</v>
+        <v>389</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F202" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
@@ -16300,7 +16174,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16314,13 +16188,13 @@
         <v>391</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="F203" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
@@ -16329,7 +16203,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16343,13 +16217,13 @@
         <v>393</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F204" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
@@ -16358,7 +16232,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16372,13 +16246,13 @@
         <v>395</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F205" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
@@ -16387,7 +16261,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16401,13 +16275,13 @@
         <v>397</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F206" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
@@ -16416,7 +16290,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16430,13 +16304,13 @@
         <v>399</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F207" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
@@ -16445,7 +16319,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16459,13 +16333,13 @@
         <v>401</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="F208" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
@@ -16474,12 +16348,12 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>9</v>
       </c>
       <c r="B209" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>402</v>
@@ -16487,14 +16361,14 @@
       <c r="D209" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="E209" s="6" t="s">
-        <v>444</v>
+      <c r="E209" t="s">
+        <v>481</v>
       </c>
       <c r="F209" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -16503,7 +16377,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16517,22 +16391,22 @@
         <v>405</v>
       </c>
       <c r="E210" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
+      <c r="I210" s="9"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
-      <c r="L210" s="7"/>
-      <c r="M210" s="7"/>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="L210" s="9"/>
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16546,27 +16420,27 @@
         <v>407</v>
       </c>
       <c r="E211" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H211" s="7"/>
-      <c r="I211" s="9"/>
+      <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>9</v>
       </c>
       <c r="B212" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>408</v>
@@ -16575,13 +16449,13 @@
         <v>409</v>
       </c>
       <c r="E212" t="s">
+        <v>452</v>
+      </c>
+      <c r="F212" t="s">
         <v>483</v>
       </c>
-      <c r="F212" t="s">
-        <v>404</v>
-      </c>
       <c r="G212" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
@@ -16590,7 +16464,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16604,13 +16478,13 @@
         <v>411</v>
       </c>
       <c r="E213" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F213" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
@@ -16619,7 +16493,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16633,13 +16507,13 @@
         <v>413</v>
       </c>
       <c r="E214" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F214" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
@@ -16648,12 +16522,12 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B215" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>414</v>
@@ -16661,14 +16535,14 @@
       <c r="D215" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E215" t="s">
-        <v>454</v>
+      <c r="E215" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="F215" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
@@ -16677,7 +16551,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16691,13 +16565,13 @@
         <v>417</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
@@ -16706,7 +16580,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16720,13 +16594,13 @@
         <v>419</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
@@ -16735,12 +16609,12 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10</v>
       </c>
       <c r="B218" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>420</v>
@@ -16748,14 +16622,14 @@
       <c r="D218" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E218" s="6" t="s">
-        <v>471</v>
+      <c r="E218" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
@@ -16764,7 +16638,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16778,13 +16652,13 @@
         <v>423</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
@@ -16793,7 +16667,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16807,13 +16681,13 @@
         <v>425</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
@@ -16822,12 +16696,12 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10</v>
       </c>
       <c r="B221" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>426</v>
@@ -16839,10 +16713,10 @@
         <v>470</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
@@ -16851,7 +16725,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16865,13 +16739,13 @@
         <v>429</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
@@ -16880,7 +16754,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16894,13 +16768,13 @@
         <v>431</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
@@ -16909,27 +16783,27 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10</v>
       </c>
       <c r="B224" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>432</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
@@ -16938,7 +16812,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -16946,19 +16820,19 @@
         <v>61</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
@@ -16967,7 +16841,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -16975,19 +16849,19 @@
         <v>61</v>
       </c>
       <c r="C226" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="E226" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -16996,7 +16870,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17010,13 +16884,13 @@
         <v>437</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -17025,37 +16899,8 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="3">
-        <v>10</v>
-      </c>
-      <c r="B228" s="3">
-        <v>61</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F228" t="s">
-        <v>434</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
-      <c r="L228" s="7"/>
-      <c r="M228" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M228"/>
+  <autoFilter ref="A1:M227"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="58" fitToHeight="0" orientation="landscape"/>

--- a/Listings.xlsx
+++ b/Listings.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27322"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="140" windowWidth="22420" windowHeight="22600"/>
+    <workbookView xWindow="825" yWindow="135" windowWidth="22425" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Listings" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listings!$A$1:$M$228</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Listings!$A$2:$M$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listings!$A$1:$M$227</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Listings!$A$2:$M$227</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Listings!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -5919,7 +5919,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -5943,7 +5943,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -5967,31 +5967,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L160" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -6015,7 +6015,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is MySQL-specific</t>
+Listing is Oracle-specific</t>
         </r>
       </text>
     </comment>
@@ -6159,7 +6159,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6183,7 +6183,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6207,7 +6207,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6231,31 +6231,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is Oracle-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M162" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is Oracle-specific</t>
+Listing is PostgreSQL-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L162" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is PostgreSQL-specific</t>
         </r>
       </text>
     </comment>
@@ -6499,27 +6499,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="H165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
+    <comment ref="H165" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+INFORMATION_SCHEMA does not exists on DB2 for LUW but is reported to exist on iSeries. Untested.</t>
         </r>
       </text>
     </comment>
@@ -6543,79 +6543,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L165" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is PostgreSQL-specific</t>
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L165" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Oracle does not support INFORMATION_SCHEMA</t>
         </r>
       </text>
     </comment>
@@ -6811,6 +6763,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MySQL does not support INFORMATION_SCHEMA.VIEW_COLUMN_USAGE</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L168" authorId="2">
       <text>
         <r>
@@ -6835,7 +6811,271 @@
         </r>
       </text>
     </comment>
-    <comment ref="H169" authorId="2">
+    <comment ref="I169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Listing is SQL Server-specific</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -6855,59 +7095,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-INFORMATION_SCHEMA does not exists on DB2 for LUW but is reported to exist on iSeries. Untested.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K169" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-MySQL does not support INFORMATION_SCHEMA.VIEW_COLUMN_USAGE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L169" authorId="2">
+Modified the index definition to index over 3 columns because DB2 does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -6927,275 +7119,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Oracle does not support INFORMATION_SCHEMA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I170" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M171" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Access doesn't support INFORMATION_SCHEMA, and its undocumented internal metadata tables are a little limited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M172" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Listing is SQL Server-specific</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H177" authorId="2">
+Modified the index definition to index over 3 columns because Access does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7215,11 +7143,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because DB2 does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I177" authorId="2">
+Modified the index definition to index over 3 columns because MySQL does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7239,11 +7167,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because Access does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K177" authorId="2">
+Modified the index definition to index over 3 columns because Oracle does not support INCLUDE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M176" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7263,58 +7191,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Modified the index definition to index over 3 columns because MySQL does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L177" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Modified the index definition to index over 3 columns because Oracle does not support INCLUDE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M177" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 Modified the index definition to index over 3 columns because PostgreSQL does not support INCLUDE</t>
         </r>
       </text>
     </comment>
+    <comment ref="I177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Query in SalesOrders.accdb</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I178" authorId="0">
       <text>
         <r>
@@ -7387,31 +7291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I181" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Query in SalesOrders.accdb</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I183" authorId="1">
+    <comment ref="I182" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7435,7 +7315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K183" authorId="2">
+    <comment ref="K182" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7459,7 +7339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I187" authorId="1">
+    <comment ref="I186" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7483,7 +7363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K187" authorId="2">
+    <comment ref="K186" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7507,7 +7387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I189" authorId="1">
+    <comment ref="I188" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7531,7 +7411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K189" authorId="1">
+    <comment ref="K188" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7555,7 +7435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I190" authorId="1">
+    <comment ref="I189" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7579,7 +7459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K190" authorId="1">
+    <comment ref="K189" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7603,7 +7483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I191" authorId="1">
+    <comment ref="I190" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7627,7 +7507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K191" authorId="0">
+    <comment ref="K190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7651,7 +7531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="1">
+    <comment ref="I192" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7675,7 +7555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K193" authorId="0">
+    <comment ref="K192" authorId="0">
       <text>
         <r>
           <rPr>
@@ -7699,7 +7579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I194" authorId="1">
+    <comment ref="I193" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7723,6 +7603,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="K193" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MySQL does not supports CTE and window functions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J194" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K194" authorId="2">
       <text>
         <r>
@@ -7743,11 +7719,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-MySQL does not supports CTE and window functions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H195" authorId="2">
+Partial snippet of Listing 9.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L194" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7771,7 +7747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I195" authorId="2">
+    <comment ref="M194" authorId="2">
       <text>
         <r>
           <rPr>
@@ -7795,103 +7771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M195" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Partial snippet of Listing 9.14</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I196" authorId="1">
+    <comment ref="I195" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7915,7 +7795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K196" authorId="1">
+    <comment ref="K195" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7939,7 +7819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I197" authorId="1">
+    <comment ref="I196" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7963,7 +7843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K197" authorId="1">
+    <comment ref="K196" authorId="1">
       <text>
         <r>
           <rPr>
@@ -7987,7 +7867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I198" authorId="1">
+    <comment ref="I197" authorId="1">
       <text>
         <r>
           <rPr>
@@ -8011,7 +7891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K198" authorId="1">
+    <comment ref="K197" authorId="1">
       <text>
         <r>
           <rPr>
@@ -8035,6 +7915,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doug:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Query included in StudentGradesExample.accdb</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I199" authorId="0">
       <text>
         <r>
@@ -8127,7 +8031,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in StudentGradesExample.accdb</t>
+Query included in Item55.accdb</t>
         </r>
       </text>
     </comment>
@@ -8295,7 +8199,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in Item55.accdb</t>
+Query included in Item56.accdb</t>
         </r>
       </text>
     </comment>
@@ -8319,83 +8223,59 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Query included in Item56.accdb</t>
+Two separate queries in Item56.accdb</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L210" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Could not create rCTE containing dates. Modified to do rCTE and generate dates outside the rCTE.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M210" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ben Clothier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It is not trivial to calculate a date from an arbitrary epoch as was done for other listings. Thus, rCTE was modified to both add a number and a date.</t>
         </r>
       </text>
     </comment>
     <comment ref="I211" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Doug:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Two separate queries in Item56.accdb</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L211" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Could not create rCTE containing dates. Modified to do rCTE and generate dates outside the rCTE.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M211" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ben Clothier:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-It is not trivial to calculate a date from an arbitrary epoch as was done for other listings. Thus, rCTE was modified to both add a number and a date.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8424,7 +8304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="491">
   <si>
     <t>Chapter</t>
   </si>
@@ -9440,12 +9320,6 @@
     <t>Query to find order details for a particular product</t>
   </si>
   <si>
-    <t>Listing 7.25</t>
-  </si>
-  <si>
-    <t>Index to cover the query in Listing L.7.46.4</t>
-  </si>
-  <si>
     <t>Listing 8.1</t>
   </si>
   <si>
@@ -9899,10 +9773,10 @@
     <t>&lt;No listings in item&gt;</t>
   </si>
   <si>
+    <t>Item20***Example</t>
+  </si>
+  <si>
     <t>Item55Example, SalesOrdersSample</t>
-  </si>
-  <si>
-    <t>Item20MSSQLExample</t>
   </si>
 </sst>
 </file>
@@ -10433,32 +10307,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10472,34 +10346,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10507,22 +10381,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10533,16 +10407,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10551,7 +10425,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10565,13 +10439,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -10580,7 +10454,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -10594,13 +10468,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -10609,7 +10483,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -10623,13 +10497,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -10638,7 +10512,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10652,13 +10526,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -10667,7 +10541,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -10681,13 +10555,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -10696,7 +10570,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -10710,13 +10584,13 @@
         <v>16</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
@@ -10725,7 +10599,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -10739,13 +10613,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -10754,7 +10628,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -10768,13 +10642,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -10783,7 +10657,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -10797,13 +10671,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10812,7 +10686,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10826,13 +10700,13 @@
         <v>22</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -10841,7 +10715,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -10855,13 +10729,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -10870,7 +10744,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -10878,22 +10752,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -10901,22 +10775,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -10930,13 +10804,13 @@
         <v>28</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
@@ -10945,7 +10819,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10959,13 +10833,13 @@
         <v>30</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -10974,7 +10848,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -10988,13 +10862,13 @@
         <v>32</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
@@ -11003,7 +10877,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -11017,13 +10891,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -11032,7 +10906,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -11046,13 +10920,13 @@
         <v>36</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -11061,7 +10935,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -11072,16 +10946,16 @@
         <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -11090,7 +10964,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -11104,13 +10978,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -11119,7 +10993,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -11133,13 +11007,13 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
@@ -11148,7 +11022,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -11162,13 +11036,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -11177,7 +11051,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -11191,13 +11065,13 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -11206,7 +11080,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -11220,13 +11094,13 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -11235,7 +11109,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -11249,13 +11123,13 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -11264,7 +11138,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -11278,13 +11152,13 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -11293,7 +11167,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -11307,13 +11181,13 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -11322,7 +11196,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -11336,13 +11210,13 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -11351,7 +11225,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11365,13 +11239,13 @@
         <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -11380,7 +11254,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -11394,13 +11268,13 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -11409,7 +11283,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -11423,13 +11297,13 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F34" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="8"/>
@@ -11438,7 +11312,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -11452,13 +11326,13 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="8"/>
@@ -11467,7 +11341,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -11481,13 +11355,13 @@
         <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>62</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
@@ -11496,7 +11370,7 @@
       <c r="L36" s="9"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -11510,13 +11384,13 @@
         <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -11525,7 +11399,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -11539,13 +11413,13 @@
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F38" t="s">
         <v>66</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
@@ -11554,7 +11428,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -11568,13 +11442,13 @@
         <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F39" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -11583,7 +11457,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -11597,13 +11471,13 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -11612,7 +11486,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -11626,13 +11500,13 @@
         <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
@@ -11641,7 +11515,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -11649,23 +11523,23 @@
         <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -11673,23 +11547,23 @@
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -11703,13 +11577,13 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -11718,7 +11592,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -11732,13 +11606,13 @@
         <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -11747,7 +11621,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11761,13 +11635,13 @@
         <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
@@ -11776,7 +11650,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -11790,13 +11664,13 @@
         <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F47" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="9"/>
@@ -11805,7 +11679,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -11819,13 +11693,13 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -11834,7 +11708,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -11848,13 +11722,13 @@
         <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
@@ -11863,7 +11737,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -11877,13 +11751,13 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
@@ -11892,7 +11766,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -11906,13 +11780,13 @@
         <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
@@ -11921,7 +11795,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -11935,13 +11809,13 @@
         <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -11950,7 +11824,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -11964,13 +11838,13 @@
         <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -11979,7 +11853,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -11993,13 +11867,13 @@
         <v>95</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
@@ -12008,7 +11882,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -12022,13 +11896,13 @@
         <v>97</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -12037,7 +11911,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12051,13 +11925,13 @@
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -12066,7 +11940,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -12080,13 +11954,13 @@
         <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -12095,7 +11969,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -12109,13 +11983,13 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F58" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -12124,7 +11998,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -12138,13 +12012,13 @@
         <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -12153,7 +12027,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4</v>
       </c>
@@ -12167,13 +12041,13 @@
         <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
@@ -12182,7 +12056,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4</v>
       </c>
@@ -12196,13 +12070,13 @@
         <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -12211,7 +12085,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -12225,13 +12099,13 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="8"/>
@@ -12240,7 +12114,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -12254,13 +12128,13 @@
         <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -12269,7 +12143,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -12283,13 +12157,13 @@
         <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -12298,7 +12172,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>4</v>
       </c>
@@ -12312,13 +12186,13 @@
         <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F65" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -12327,7 +12201,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -12341,13 +12215,13 @@
         <v>121</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F66" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="8"/>
@@ -12356,7 +12230,7 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -12370,13 +12244,13 @@
         <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
@@ -12385,7 +12259,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -12399,13 +12273,13 @@
         <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -12414,7 +12288,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -12428,13 +12302,13 @@
         <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F69" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="8"/>
@@ -12443,7 +12317,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -12457,13 +12331,13 @@
         <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -12472,7 +12346,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -12486,13 +12360,13 @@
         <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -12501,7 +12375,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -12515,13 +12389,13 @@
         <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F72" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="8"/>
@@ -12530,7 +12404,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -12544,13 +12418,13 @@
         <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F73" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -12559,7 +12433,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -12573,13 +12447,13 @@
         <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -12588,7 +12462,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -12602,13 +12476,13 @@
         <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8"/>
@@ -12617,7 +12491,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -12631,13 +12505,13 @@
         <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -12646,7 +12520,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -12660,13 +12534,13 @@
         <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F77" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -12675,7 +12549,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -12689,13 +12563,13 @@
         <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -12704,7 +12578,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>4</v>
       </c>
@@ -12718,13 +12592,13 @@
         <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -12733,7 +12607,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -12747,13 +12621,13 @@
         <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F80" t="s">
         <v>145</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -12762,7 +12636,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -12776,13 +12650,13 @@
         <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" t="s">
         <v>145</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -12791,7 +12665,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -12805,13 +12679,13 @@
         <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F82" t="s">
         <v>145</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
@@ -12820,7 +12694,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -12834,13 +12708,13 @@
         <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F83" t="s">
         <v>145</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -12849,7 +12723,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -12863,13 +12737,13 @@
         <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F84" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -12878,7 +12752,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -12892,13 +12766,13 @@
         <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F85" t="s">
         <v>145</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -12907,7 +12781,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>4</v>
       </c>
@@ -12921,13 +12795,13 @@
         <v>158</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F86" t="s">
         <v>145</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -12936,7 +12810,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
@@ -12950,13 +12824,13 @@
         <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F87" t="s">
         <v>159</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8"/>
@@ -12965,7 +12839,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>4</v>
       </c>
@@ -12979,13 +12853,13 @@
         <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F88" t="s">
         <v>159</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -12994,7 +12868,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>4</v>
       </c>
@@ -13008,13 +12882,13 @@
         <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F89" t="s">
         <v>159</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -13023,7 +12897,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -13037,13 +12911,13 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F90" t="s">
         <v>159</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -13052,7 +12926,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -13066,13 +12940,13 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F91" t="s">
         <v>159</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -13081,7 +12955,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -13095,13 +12969,13 @@
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F92" t="s">
         <v>159</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -13110,7 +12984,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -13124,13 +12998,13 @@
         <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F93" t="s">
         <v>159</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -13139,7 +13013,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>4</v>
       </c>
@@ -13153,13 +13027,13 @@
         <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F94" t="s">
         <v>159</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -13168,7 +13042,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>4</v>
       </c>
@@ -13182,13 +13056,13 @@
         <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F95" t="s">
         <v>159</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -13197,7 +13071,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>4</v>
       </c>
@@ -13211,13 +13085,13 @@
         <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F96" t="s">
         <v>159</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -13226,7 +13100,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>4</v>
       </c>
@@ -13240,13 +13114,13 @@
         <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F97" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -13255,7 +13129,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -13269,13 +13143,13 @@
         <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F98" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -13284,7 +13158,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
@@ -13298,13 +13172,13 @@
         <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -13313,7 +13187,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -13327,13 +13201,13 @@
         <v>186</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F100" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
@@ -13342,7 +13216,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>5</v>
       </c>
@@ -13356,13 +13230,13 @@
         <v>188</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F101" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -13371,7 +13245,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>5</v>
       </c>
@@ -13385,13 +13259,13 @@
         <v>190</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F102" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
@@ -13400,7 +13274,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>5</v>
       </c>
@@ -13414,13 +13288,13 @@
         <v>192</v>
       </c>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F103" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="8"/>
@@ -13429,7 +13303,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>5</v>
       </c>
@@ -13443,13 +13317,13 @@
         <v>194</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F104" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8"/>
@@ -13458,7 +13332,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>5</v>
       </c>
@@ -13472,13 +13346,13 @@
         <v>196</v>
       </c>
       <c r="E105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F105" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8"/>
@@ -13487,7 +13361,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
@@ -13501,13 +13375,13 @@
         <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F106" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -13516,7 +13390,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -13530,13 +13404,13 @@
         <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -13545,7 +13419,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>5</v>
       </c>
@@ -13559,13 +13433,13 @@
         <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F108" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -13574,7 +13448,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>5</v>
       </c>
@@ -13588,13 +13462,13 @@
         <v>204</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -13603,7 +13477,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -13617,13 +13491,13 @@
         <v>206</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F110" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -13632,7 +13506,7 @@
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>5</v>
       </c>
@@ -13646,13 +13520,13 @@
         <v>208</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F111" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -13661,7 +13535,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>5</v>
       </c>
@@ -13675,13 +13549,13 @@
         <v>210</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F112" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -13690,7 +13564,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>5</v>
       </c>
@@ -13704,13 +13578,13 @@
         <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F113" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -13719,7 +13593,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>5</v>
       </c>
@@ -13733,13 +13607,13 @@
         <v>214</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F114" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -13748,7 +13622,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>5</v>
       </c>
@@ -13762,13 +13636,13 @@
         <v>216</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F115" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -13777,7 +13651,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>5</v>
       </c>
@@ -13791,13 +13665,13 @@
         <v>218</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F116" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -13806,7 +13680,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>5</v>
       </c>
@@ -13820,13 +13694,13 @@
         <v>220</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -13835,7 +13709,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>5</v>
       </c>
@@ -13849,13 +13723,13 @@
         <v>222</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F118" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -13864,7 +13738,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
@@ -13878,13 +13752,13 @@
         <v>224</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F119" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -13893,7 +13767,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -13907,13 +13781,13 @@
         <v>226</v>
       </c>
       <c r="E120" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F120" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -13922,7 +13796,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
@@ -13936,13 +13810,13 @@
         <v>228</v>
       </c>
       <c r="E121" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -13951,7 +13825,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>5</v>
       </c>
@@ -13965,13 +13839,13 @@
         <v>230</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -13980,7 +13854,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -13994,13 +13868,13 @@
         <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F123" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="7"/>
@@ -14009,7 +13883,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>5</v>
       </c>
@@ -14023,13 +13897,13 @@
         <v>234</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="7"/>
@@ -14038,7 +13912,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>5</v>
       </c>
@@ -14052,13 +13926,13 @@
         <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="7"/>
@@ -14067,7 +13941,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>5</v>
       </c>
@@ -14081,13 +13955,13 @@
         <v>238</v>
       </c>
       <c r="E126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -14096,7 +13970,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>5</v>
       </c>
@@ -14110,13 +13984,13 @@
         <v>240</v>
       </c>
       <c r="E127" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="9"/>
@@ -14125,7 +13999,7 @@
       <c r="L127" s="9"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>5</v>
       </c>
@@ -14139,13 +14013,13 @@
         <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8"/>
@@ -14154,7 +14028,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>5</v>
       </c>
@@ -14168,13 +14042,13 @@
         <v>244</v>
       </c>
       <c r="E129" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F129" t="s">
         <v>243</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8"/>
@@ -14183,7 +14057,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -14197,13 +14071,13 @@
         <v>246</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="8"/>
@@ -14212,7 +14086,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -14226,13 +14100,13 @@
         <v>248</v>
       </c>
       <c r="E131" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8"/>
@@ -14241,7 +14115,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -14255,13 +14129,13 @@
         <v>250</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F132" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="8"/>
@@ -14270,7 +14144,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>5</v>
       </c>
@@ -14284,13 +14158,13 @@
         <v>252</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F133" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="8"/>
@@ -14299,7 +14173,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>6</v>
       </c>
@@ -14313,13 +14187,13 @@
         <v>254</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F134" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
@@ -14328,7 +14202,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>6</v>
       </c>
@@ -14342,13 +14216,13 @@
         <v>256</v>
       </c>
       <c r="E135" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F135" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
@@ -14357,7 +14231,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>6</v>
       </c>
@@ -14371,13 +14245,13 @@
         <v>258</v>
       </c>
       <c r="E136" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F136" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -14386,7 +14260,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>6</v>
       </c>
@@ -14400,13 +14274,13 @@
         <v>260</v>
       </c>
       <c r="E137" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F137" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -14415,7 +14289,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -14429,13 +14303,13 @@
         <v>262</v>
       </c>
       <c r="E138" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F138" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -14444,7 +14318,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>6</v>
       </c>
@@ -14458,13 +14332,13 @@
         <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -14473,7 +14347,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -14487,13 +14361,13 @@
         <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F140" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -14502,7 +14376,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -14516,13 +14390,13 @@
         <v>272</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F141" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -14531,7 +14405,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -14545,13 +14419,13 @@
         <v>274</v>
       </c>
       <c r="E142" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F142" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -14560,7 +14434,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -14574,13 +14448,13 @@
         <v>266</v>
       </c>
       <c r="E143" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F143" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -14589,7 +14463,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -14603,13 +14477,13 @@
         <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F144" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -14618,7 +14492,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -14632,13 +14506,13 @@
         <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -14647,7 +14521,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -14661,13 +14535,13 @@
         <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="9"/>
@@ -14676,7 +14550,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -14690,13 +14564,13 @@
         <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="8"/>
@@ -14705,7 +14579,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -14719,13 +14593,13 @@
         <v>282</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -14734,7 +14608,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -14748,13 +14622,13 @@
         <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F149" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -14763,7 +14637,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -14777,13 +14651,13 @@
         <v>286</v>
       </c>
       <c r="E150" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F150" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -14792,7 +14666,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -14806,13 +14680,13 @@
         <v>288</v>
       </c>
       <c r="E151" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F151" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -14821,7 +14695,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -14835,13 +14709,13 @@
         <v>290</v>
       </c>
       <c r="E152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F152" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -14850,7 +14724,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>7</v>
       </c>
@@ -14864,13 +14738,13 @@
         <v>292</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F153" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="8"/>
@@ -14879,7 +14753,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>7</v>
       </c>
@@ -14893,13 +14767,13 @@
         <v>302</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F154" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="8"/>
@@ -14908,7 +14782,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>7</v>
       </c>
@@ -14922,13 +14796,13 @@
         <v>304</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F155" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="7"/>
@@ -14937,7 +14811,7 @@
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>7</v>
       </c>
@@ -14951,13 +14825,13 @@
         <v>306</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F156" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="7"/>
@@ -14966,7 +14840,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>7</v>
       </c>
@@ -14980,13 +14854,13 @@
         <v>308</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F157" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -14995,7 +14869,7 @@
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>7</v>
       </c>
@@ -15009,13 +14883,13 @@
         <v>310</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F158" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
@@ -15024,7 +14898,7 @@
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>7</v>
       </c>
@@ -15038,13 +14912,13 @@
         <v>312</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F159" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
@@ -15053,7 +14927,7 @@
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>7</v>
       </c>
@@ -15067,22 +14941,22 @@
         <v>314</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F160" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="7"/>
       <c r="M160" s="8"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -15096,13 +14970,13 @@
         <v>316</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F161" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -15111,7 +14985,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="8"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>7</v>
       </c>
@@ -15125,22 +14999,22 @@
         <v>294</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="F162" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="8"/>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="L162" s="8"/>
+      <c r="M162" s="7"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>7</v>
       </c>
@@ -15154,13 +15028,13 @@
         <v>296</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F163" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -15169,7 +15043,7 @@
       <c r="L163" s="8"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>7</v>
       </c>
@@ -15183,13 +15057,13 @@
         <v>298</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -15198,7 +15072,7 @@
       <c r="L164" s="8"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>7</v>
       </c>
@@ -15211,23 +15085,23 @@
       <c r="D165" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>444</v>
+      <c r="E165" t="s">
+        <v>473</v>
       </c>
       <c r="F165" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
+        <v>486</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="8"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
@@ -15241,13 +15115,13 @@
         <v>318</v>
       </c>
       <c r="E166" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F166" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
@@ -15256,7 +15130,7 @@
       <c r="L166" s="8"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>7</v>
       </c>
@@ -15270,13 +15144,13 @@
         <v>320</v>
       </c>
       <c r="E167" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F167" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
@@ -15285,7 +15159,7 @@
       <c r="L167" s="8"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>7</v>
       </c>
@@ -15299,22 +15173,22 @@
         <v>322</v>
       </c>
       <c r="E168" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F168" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
       <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
+      <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>7</v>
       </c>
@@ -15328,22 +15202,22 @@
         <v>324</v>
       </c>
       <c r="E169" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="F169" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H169" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H169" s="7"/>
       <c r="I169" s="10"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>7</v>
       </c>
@@ -15354,25 +15228,25 @@
         <v>325</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E170" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F170" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G170" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H170" s="7"/>
+        <v>487</v>
+      </c>
+      <c r="H170" s="8"/>
       <c r="I170" s="10"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>7</v>
       </c>
@@ -15386,13 +15260,13 @@
         <v>327</v>
       </c>
       <c r="E171" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F171" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G171" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="10"/>
@@ -15401,7 +15275,7 @@
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>7</v>
       </c>
@@ -15414,23 +15288,23 @@
       <c r="D172" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E172" t="s">
-        <v>452</v>
+      <c r="E172" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F172" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="H172" s="8"/>
-      <c r="I172" s="10"/>
+        <v>486</v>
+      </c>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>7</v>
       </c>
@@ -15444,13 +15318,13 @@
         <v>331</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F173" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G173" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -15459,7 +15333,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -15473,13 +15347,13 @@
         <v>333</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F174" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -15488,7 +15362,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>7</v>
       </c>
@@ -15502,13 +15376,13 @@
         <v>335</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F175" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -15517,7 +15391,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>7</v>
       </c>
@@ -15531,27 +15405,27 @@
         <v>337</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F176" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
+        <v>486</v>
+      </c>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B177" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>338</v>
@@ -15559,23 +15433,23 @@
       <c r="D177" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>444</v>
+      <c r="E177" t="s">
+        <v>442</v>
       </c>
       <c r="F177" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
+        <v>486</v>
+      </c>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="9"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>8</v>
       </c>
@@ -15589,13 +15463,13 @@
         <v>341</v>
       </c>
       <c r="E178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F178" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -15604,7 +15478,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>8</v>
       </c>
@@ -15618,13 +15492,13 @@
         <v>343</v>
       </c>
       <c r="E179" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F179" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -15633,7 +15507,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>8</v>
       </c>
@@ -15647,13 +15521,13 @@
         <v>345</v>
       </c>
       <c r="E180" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F180" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -15662,12 +15536,12 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>8</v>
       </c>
       <c r="B181" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>346</v>
@@ -15676,13 +15550,13 @@
         <v>347</v>
       </c>
       <c r="E181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F181" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -15691,7 +15565,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>8</v>
       </c>
@@ -15705,51 +15579,51 @@
         <v>349</v>
       </c>
       <c r="E182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F182" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
+      <c r="I182" s="9"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="9"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>8</v>
       </c>
       <c r="B183" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E183" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F183" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H183" s="7"/>
-      <c r="I183" s="9"/>
+      <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="9"/>
+      <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>8</v>
       </c>
@@ -15763,13 +15637,13 @@
         <v>357</v>
       </c>
       <c r="E184" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F184" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -15778,7 +15652,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>8</v>
       </c>
@@ -15792,13 +15666,13 @@
         <v>359</v>
       </c>
       <c r="E185" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F185" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -15807,7 +15681,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>8</v>
       </c>
@@ -15815,28 +15689,28 @@
         <v>49</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E186" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F186" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
+      <c r="I186" s="8"/>
       <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
+      <c r="K186" s="8"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>8</v>
       </c>
@@ -15850,51 +15724,51 @@
         <v>353</v>
       </c>
       <c r="E187" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F187" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H187" s="7"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="8"/>
+      <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
       <c r="B188" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F188" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
+      <c r="I188" s="9"/>
       <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
+      <c r="K188" s="9"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>8</v>
       </c>
@@ -15908,13 +15782,13 @@
         <v>363</v>
       </c>
       <c r="E189" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F189" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="9"/>
@@ -15923,12 +15797,12 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B190" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>364</v>
@@ -15936,23 +15810,23 @@
       <c r="D190" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E190" t="s">
-        <v>454</v>
+      <c r="E190" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F190" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H190" s="7"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="8"/>
       <c r="J190" s="7"/>
-      <c r="K190" s="9"/>
+      <c r="K190" s="8"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>9</v>
       </c>
@@ -15966,22 +15840,22 @@
         <v>367</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F191" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H191" s="7"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="K191" s="8"/>
+      <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>9</v>
       </c>
@@ -15995,27 +15869,27 @@
         <v>369</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F192" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
+      <c r="I192" s="8"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
+      <c r="K192" s="13"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>9</v>
       </c>
       <c r="B193" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>370</v>
@@ -16023,23 +15897,23 @@
       <c r="D193" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>444</v>
+      <c r="E193" t="s">
+        <v>472</v>
       </c>
       <c r="F193" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="8"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="13"/>
+      <c r="K193" s="8"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>9</v>
       </c>
@@ -16052,28 +15926,28 @@
       <c r="D194" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F194" t="s">
         <v>474</v>
       </c>
-      <c r="F194" t="s">
-        <v>485</v>
-      </c>
       <c r="G194" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H194" s="7"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="7"/>
-    </row>
-    <row r="195" spans="1:13">
+        <v>486</v>
+      </c>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="16"/>
+      <c r="L194" s="16"/>
+      <c r="M194" s="16"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>9</v>
       </c>
       <c r="B195" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>374</v>
@@ -16081,23 +15955,23 @@
       <c r="D195" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>467</v>
+      <c r="E195" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F195" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H195" s="16"/>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16"/>
-      <c r="K195" s="16"/>
-      <c r="L195" s="16"/>
-      <c r="M195" s="16"/>
-    </row>
-    <row r="196" spans="1:13">
+        <v>486</v>
+      </c>
+      <c r="H195" s="7"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>9</v>
       </c>
@@ -16111,13 +15985,13 @@
         <v>377</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F196" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H196" s="7"/>
       <c r="I196" s="9"/>
@@ -16126,7 +16000,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>9</v>
       </c>
@@ -16140,13 +16014,13 @@
         <v>379</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F197" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="9"/>
@@ -16155,36 +16029,36 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>9</v>
       </c>
       <c r="B198" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>444</v>
+        <v>387</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="F198" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H198" s="7"/>
-      <c r="I198" s="9"/>
+      <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="9"/>
+      <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>9</v>
       </c>
@@ -16192,19 +16066,19 @@
         <v>54</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E199" s="14" t="s">
-        <v>455</v>
+        <v>381</v>
+      </c>
+      <c r="E199" t="s">
+        <v>453</v>
       </c>
       <c r="F199" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
@@ -16213,7 +16087,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>9</v>
       </c>
@@ -16227,13 +16101,13 @@
         <v>383</v>
       </c>
       <c r="E200" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F200" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -16242,7 +16116,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>9</v>
       </c>
@@ -16256,13 +16130,13 @@
         <v>385</v>
       </c>
       <c r="E201" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F201" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
@@ -16271,27 +16145,27 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>9</v>
       </c>
       <c r="B202" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E202" t="s">
-        <v>455</v>
+        <v>389</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F202" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
@@ -16300,7 +16174,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>9</v>
       </c>
@@ -16314,13 +16188,13 @@
         <v>391</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="F203" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
@@ -16329,7 +16203,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -16343,13 +16217,13 @@
         <v>393</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F204" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
@@ -16358,7 +16232,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>9</v>
       </c>
@@ -16372,13 +16246,13 @@
         <v>395</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F205" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
@@ -16387,7 +16261,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>9</v>
       </c>
@@ -16401,13 +16275,13 @@
         <v>397</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F206" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
@@ -16416,7 +16290,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>9</v>
       </c>
@@ -16430,13 +16304,13 @@
         <v>399</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F207" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
@@ -16445,7 +16319,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>9</v>
       </c>
@@ -16459,13 +16333,13 @@
         <v>401</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="F208" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
@@ -16474,12 +16348,12 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>9</v>
       </c>
       <c r="B209" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>402</v>
@@ -16487,14 +16361,14 @@
       <c r="D209" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="E209" s="6" t="s">
-        <v>444</v>
+      <c r="E209" t="s">
+        <v>481</v>
       </c>
       <c r="F209" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
@@ -16503,7 +16377,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
@@ -16517,22 +16391,22 @@
         <v>405</v>
       </c>
       <c r="E210" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H210" s="7"/>
-      <c r="I210" s="7"/>
+      <c r="I210" s="9"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
-      <c r="L210" s="7"/>
-      <c r="M210" s="7"/>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="L210" s="9"/>
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>9</v>
       </c>
@@ -16546,27 +16420,27 @@
         <v>407</v>
       </c>
       <c r="E211" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H211" s="7"/>
-      <c r="I211" s="9"/>
+      <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>9</v>
       </c>
       <c r="B212" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>408</v>
@@ -16575,13 +16449,13 @@
         <v>409</v>
       </c>
       <c r="E212" t="s">
+        <v>452</v>
+      </c>
+      <c r="F212" t="s">
         <v>483</v>
       </c>
-      <c r="F212" t="s">
-        <v>404</v>
-      </c>
       <c r="G212" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
@@ -16590,7 +16464,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -16604,13 +16478,13 @@
         <v>411</v>
       </c>
       <c r="E213" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F213" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
@@ -16619,7 +16493,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>9</v>
       </c>
@@ -16633,13 +16507,13 @@
         <v>413</v>
       </c>
       <c r="E214" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F214" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
@@ -16648,12 +16522,12 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B215" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>414</v>
@@ -16661,14 +16535,14 @@
       <c r="D215" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E215" t="s">
-        <v>454</v>
+      <c r="E215" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="F215" t="s">
-        <v>485</v>
+        <v>414</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
@@ -16677,7 +16551,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10</v>
       </c>
@@ -16691,13 +16565,13 @@
         <v>417</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
@@ -16706,7 +16580,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10</v>
       </c>
@@ -16720,13 +16594,13 @@
         <v>419</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
@@ -16735,12 +16609,12 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10</v>
       </c>
       <c r="B218" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>420</v>
@@ -16748,14 +16622,14 @@
       <c r="D218" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E218" s="6" t="s">
-        <v>471</v>
+      <c r="E218" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
@@ -16764,7 +16638,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10</v>
       </c>
@@ -16778,13 +16652,13 @@
         <v>423</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
@@ -16793,7 +16667,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10</v>
       </c>
@@ -16807,13 +16681,13 @@
         <v>425</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
@@ -16822,12 +16696,12 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10</v>
       </c>
       <c r="B221" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>426</v>
@@ -16839,10 +16713,10 @@
         <v>470</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
@@ -16851,7 +16725,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10</v>
       </c>
@@ -16865,13 +16739,13 @@
         <v>429</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
@@ -16880,7 +16754,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10</v>
       </c>
@@ -16894,13 +16768,13 @@
         <v>431</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
@@ -16909,27 +16783,27 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10</v>
       </c>
       <c r="B224" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>432</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
@@ -16938,7 +16812,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10</v>
       </c>
@@ -16946,19 +16820,19 @@
         <v>61</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
@@ -16967,7 +16841,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10</v>
       </c>
@@ -16975,19 +16849,19 @@
         <v>61</v>
       </c>
       <c r="C226" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="E226" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
@@ -16996,7 +16870,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10</v>
       </c>
@@ -17010,13 +16884,13 @@
         <v>437</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -17025,37 +16899,8 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="3">
-        <v>10</v>
-      </c>
-      <c r="B228" s="3">
-        <v>61</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F228" t="s">
-        <v>434</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
-      <c r="L228" s="7"/>
-      <c r="M228" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M228"/>
+  <autoFilter ref="A1:M227"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="58" fitToHeight="0" orientation="landscape"/>
